--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -1,32 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31C796-945A-4845-AECB-0DD743B1326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zadania" sheetId="2" r:id="rId1"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>ub(T), C</t>
+  </si>
+  <si>
+    <t>ub(t), s</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>czas spadania kulki t, s</t>
+  </si>
+  <si>
+    <t>T, C</t>
+  </si>
+  <si>
+    <t>tśr, s</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>odchyl</t>
+  </si>
+  <si>
+    <t>s. F. n=3</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.\</t>
+  </si>
+  <si>
+    <t>u(tśr), s</t>
+  </si>
+  <si>
+    <t>ua(tśr), s</t>
+  </si>
+  <si>
+    <t>η, Pa*s</t>
+  </si>
+  <si>
+    <t>u(η), Pa*s</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +122,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +449,443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="str">
+        <f>Pomiary!A1</f>
+        <v>ub(T), C</v>
+      </c>
+      <c r="B1" s="2">
+        <f>Pomiary!B1</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1">
+        <v>1.321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="str">
+        <f>Pomiary!A2</f>
+        <v>ub(t), s</v>
+      </c>
+      <c r="B2" s="2">
+        <f>Pomiary!B2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="str">
+        <f>Pomiary!A3</f>
+        <v>LP</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>Pomiary!B3</f>
+        <v>T, C</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <f>Pomiary!A4</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B4,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C4" s="5" t="e">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!G4,RIGHT(TEXT(F4,"0,00E+00"),2)+1,TRUE),"(",LEFT(F4*10^LEN(F4),2),")")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="5" t="e">
+        <f>STDEVA(Pomiary!C4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="5" t="e">
+        <f>D4*$D$1/SQRT(3-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="5" t="e">
+        <f>SQRT(E4^2+$B$2^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <f>Pomiary!A5</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B5,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C5" s="5" t="e">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!G5,RIGHT(TEXT(F5,"0,00E+00"),2)+1,TRUE),"(",LEFT(F5*10^LEN(F5),2),")")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="5" t="e">
+        <f>STDEVA(Pomiary!C5:E5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="5" t="e">
+        <f t="shared" ref="E5:E8" si="0">D5*$D$1/SQRT(3-1)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="5" t="e">
+        <f t="shared" ref="F5:F8" si="1">SQRT(E5^2+$B$2^2)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <f>Pomiary!A6</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B6,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C6" s="5" t="e">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!G6,RIGHT(TEXT(F6,"0,00E+00"),2)+1,TRUE),"(",LEFT(F6*10^LEN(F6),2),")")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="5" t="e">
+        <f>STDEVA(Pomiary!C6:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <f>Pomiary!A7</f>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B7,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!G7,RIGHT(TEXT(F7,"0,00E+00"),2)+1,TRUE),"(",LEFT(F7*10^LEN(F7),2),")")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="5" t="e">
+        <f>STDEVA(Pomiary!C7:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <f>Pomiary!A8</f>
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!B8,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C8" s="5" t="e">
+        <f>_xlfn.CONCAT(FIXED(Pomiary!G8,RIGHT(TEXT(F8,"0,00E+00"),2)+1,TRUE),"(",LEFT(F8*10^LEN(F8),2),")")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="5" t="e">
+        <f>STDEVA(Pomiary!C8:E8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="str">
+        <f t="shared" ref="A10:C15" si="2">A3</f>
+        <v>LP</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>T, C</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>tśr, s</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" ref="D10:D15" si="3">F3</f>
+        <v>u(tśr), s</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C11" s="5" t="e">
+        <f>Pomiary!G4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C12" s="5" t="e">
+        <f>Pomiary!G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C13" s="5" t="e">
+        <f>Pomiary!G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C14" s="5" t="e">
+        <f>Pomiary!G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D14" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0(0)</v>
+      </c>
+      <c r="C15" s="5" t="e">
+        <f>Pomiary!G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D15" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="1" t="e">
+        <f>AVERAGE(C4:E4)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="1" t="e">
+        <f>AVERAGE(C5:E5)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="e">
+        <f>AVERAGE(C6:E6)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="e">
+        <f>AVERAGE(C7:E7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1" t="e">
+        <f>AVERAGE(C8:E8)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F31C796-945A-4845-AECB-0DD743B1326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F06E1-78AB-4078-A081-B27B45639D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>ub(T), C</t>
   </si>
@@ -72,9 +72,6 @@
     <t>3.</t>
   </si>
   <si>
-    <t>4.\</t>
-  </si>
-  <si>
     <t>u(tśr), s</t>
   </si>
   <si>
@@ -86,11 +83,56 @@
   <si>
     <t>u(η), Pa*s</t>
   </si>
+  <si>
+    <t>ρ, kg/m^3</t>
+  </si>
+  <si>
+    <t>ρk</t>
+  </si>
+  <si>
+    <t>4. K</t>
+  </si>
+  <si>
+    <t>1/T, 1/C</t>
+  </si>
+  <si>
+    <t>ln(η), ln(Pa*s)</t>
+  </si>
+  <si>
+    <t>Regresja</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>u(b)</t>
+  </si>
+  <si>
+    <t>u(a)</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>8. i 9.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -154,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,7 +211,8 @@
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -185,6 +228,4728 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Zależności współczynnika lepkości oleju parafinowego od temperatury</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$G$11:$G$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>9.8532338242367356E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0418174079850722E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9630599564294148E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1347773024494613E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4007903937304441E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$G$11:$G$15</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>9.8532338242367356E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0418174079850722E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9630599564294148E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.1347773024494613E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4007903937304441E-3</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Zadania!$B$1</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.57735026918962584</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Zadania!$B$1</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.57735026918962584</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pomiary!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$F$11:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.5304075650879996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0963389012839997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65925307851999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4791018964799999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36139892645999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C2D-4A21-BECB-E3E63C67CA00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="569522312"/>
+        <c:axId val="569523752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="569522312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="52"/>
+          <c:min val="18"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>T, C</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569523752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="569523752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.6"/>
+          <c:min val="0.30000000000000004"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>η, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Pa*s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569522312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ratury wyrażonej w kelwinach</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$I$11:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.4112229234180458E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.331667499583542E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2346757237586934E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1630555116242292E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1041440322830982E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$J$11:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42553408234130657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1976357228254521E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41664778402888963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.73584197667885398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0177728713320182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E102-4A3C-8E18-40FDCCBE10D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671956720"/>
+        <c:axId val="671949880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="671956720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.1000000000000008E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>1/T, 1/K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671949880"/>
+        <c:crossesAt val="-1.2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671949880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>η), </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pa*s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671956720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ratury wyrażonej w kelwinach</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$I$11:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.4112229234180458E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.331667499583542E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2346757237586934E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1630555116242292E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1041440322830982E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$J$11:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42553408234130657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1976357228254521E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41664778402888963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.73584197667885398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0177728713320182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B84C-4102-ABDD-71542B0E129E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671956720"/>
+        <c:axId val="671949880"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>regr</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$P$10:$P$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>3.1041440322830982E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1141440322830982E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1241440322830982E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1341440322830982E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1441440322830983E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1541440322830983E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1641440322830983E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1741440322830983E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1841440322830984E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1941440322830984E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2041440322830984E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2141440322830984E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2241440322830985E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2341440322830985E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2441440322830985E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2541440322830986E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2641440322830986E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2741440322830986E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2841440322830986E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2941440322830987E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3041440322830987E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3141440322830987E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3241440322830987E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3341440322830988E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3441440322830988E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3541440322830988E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3641440322830988E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.3741440322830989E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3841440322830989E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.3941440322830989E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4041440322830989E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.414144032283099E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.424144032283099E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.434144032283099E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$Q$10:$Q$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>-1.0184019166935929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.97090134867613287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.92340078065867282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.87590021264121276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.82839964462375448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.78089907660629443</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.73339850858883437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.6858979405713761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.63839737255391604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.59089680453645599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.54339623651899771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.49589566850153766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.4483951004840776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.40089453246661755</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35339396444915927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.30589339643169922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.25839282841423916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.21089226039678088</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.16339169237932083</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.11589112436186078</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.8390556344400721E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0889988326942444E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6610579690517611E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.4111147707977665E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12161171572543594</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.169112283742896</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21661285176035605</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26411341977781611</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.31161398779527438</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.35911455581273266</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40661512383019449</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45411569184765277</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5016162598651146</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.54911682788257288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B84C-4102-ABDD-71542B0E129E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671956720"/>
+        <c:axId val="671949880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="671956720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.1000000000000008E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>1/T, 1/K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671949880"/>
+        <c:crossesAt val="-1.2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671949880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>η), </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pa*s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671956720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>ratury wyrażonej w kelwinach</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Zadania!$I$11:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>3.4112229234180458E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.331667499583542E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2346757237586934E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1630555116242292E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1041440322830982E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Zadania!$J$11:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42553408234130657</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1976357228254521E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.41664778402888963</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.73584197667885398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0177728713320182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A897-4C56-A850-7038CF87673F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="671956720"/>
+        <c:axId val="671949880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="671956720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.1000000000000008E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>1/T, 1/K</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671949880"/>
+        <c:crossesAt val="-1.2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="671949880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>η), </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>ln(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pa*s</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="671956720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>234197</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>90851</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>240766</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14139237-5150-B228-123B-7C5BC0759238}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>398422</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>119097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>56836</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>40270</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC20268B-22D8-1DBC-12A9-A9A65F26A023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>345872</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70261</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Wykres 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562BE7F4-DDAC-4CDB-86D5-E14927D125CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>298173</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>3998</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513B312A-100A-471A-A251-48C899971CDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,22 +5215,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>Pomiary!A1</f>
         <v>ub(T), C</v>
       </c>
       <c r="B1" s="2">
         <f>Pomiary!B1</f>
-        <v>0</v>
+        <v>0.57735026918962584</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -474,14 +5245,14 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>Pomiary!A2</f>
         <v>ub(t), s</v>
       </c>
       <c r="B2" s="2">
         <f>Pomiary!B2</f>
-        <v>0</v>
+        <v>5.7735026918962581E-2</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -492,11 +5263,8 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>Pomiary!A3</f>
         <v>LP</v>
@@ -512,143 +5280,170 @@
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>Pomiary!A4</f>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B4,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C4" s="5" t="e">
+        <v>20,00(57)</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G4,RIGHT(TEXT(F4,"0,00E+00"),2)+1,TRUE),"(",LEFT(F4*10^LEN(F4),2),")")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D4" s="5" t="e">
+        <v>175,1(11)</v>
+      </c>
+      <c r="D4" s="5">
         <f>STDEVA(Pomiary!C4:E4)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="5" t="e">
+        <v>1.2055427546683446</v>
+      </c>
+      <c r="E4" s="5">
         <f>D4*$D$1/SQRT(3-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F4" s="5" t="e">
+        <v>1.1260830904807482</v>
+      </c>
+      <c r="F4" s="5">
         <f>SQRT(E4^2+$B$2^2)</f>
-        <v>#DIV/0!</v>
+        <v>1.1275621756692649</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>Pomiary!A5</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B5,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C5" s="5" t="e">
+        <v>27,00(57)</v>
+      </c>
+      <c r="C5" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G5,RIGHT(TEXT(F5,"0,00E+00"),2)+1,TRUE),"(",LEFT(F5*10^LEN(F5),2),")")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="5" t="e">
+        <v>125,4(34)</v>
+      </c>
+      <c r="D5" s="5">
         <f>STDEVA(Pomiary!C5:E5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="5" t="e">
+        <v>3.724244889907208</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" ref="E5:E8" si="0">D5*$D$1/SQRT(3-1)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="5" t="e">
+        <v>3.4787726765340614</v>
+      </c>
+      <c r="F5" s="5">
         <f t="shared" ref="F5:F8" si="1">SQRT(E5^2+$B$2^2)</f>
-        <v>#DIV/0!</v>
+        <v>3.479251739718368</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>Pomiary!A6</f>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B6,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C6" s="5" t="e">
+        <v>36,00(57)</v>
+      </c>
+      <c r="C6" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G6,RIGHT(TEXT(F6,"0,00E+00"),2)+1,TRUE),"(",LEFT(F6*10^LEN(F6),2),")")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="5" t="e">
+        <v>75,3(22)</v>
+      </c>
+      <c r="D6" s="5">
         <f>STDEVA(Pomiary!C6:E6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="5" t="e">
+        <v>2.4006943440041111</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="5" t="e">
+        <v>2.2424599175161775</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.243203025809299</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>Pomiary!A7</f>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B7,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C7" s="5" t="e">
+        <v>43,00(57)</v>
+      </c>
+      <c r="C7" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G7,RIGHT(TEXT(F7,"0,00E+00"),2)+1,TRUE),"(",LEFT(F7*10^LEN(F7),2),")")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="5" t="e">
+        <v>54,7(12)</v>
+      </c>
+      <c r="D7" s="5">
         <f>STDEVA(Pomiary!C7:E7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="5" t="e">
+        <v>1.385640646055101</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="5" t="e">
+        <v>1.2943103800866302</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.2955974271869062</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>Pomiary!A8</f>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B8,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C8" s="5" t="e">
+        <v>49,00(57)</v>
+      </c>
+      <c r="C8" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G8,RIGHT(TEXT(F8,"0,00E+00"),2)+1,TRUE),"(",LEFT(F8*10^LEN(F8),2),")")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="5" t="e">
+        <v>41,23(84)</v>
+      </c>
+      <c r="D8" s="5">
         <f>STDEVA(Pomiary!C8:E8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="5" t="e">
+        <v>0.90184995056458095</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="5" t="e">
+        <v>0.84240726888285444</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.84438340817427426</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <f>1.2018*10^(-6)</f>
+        <v>1.2017999999999999E-6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>8150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" ref="A10:C15" si="2">A3</f>
         <v>LP</v>
@@ -657,113 +5452,579 @@
         <f t="shared" si="2"/>
         <v>T, C</v>
       </c>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="2"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f>C3</f>
         <v>tśr, s</v>
       </c>
-      <c r="D10" s="5" t="str">
-        <f t="shared" ref="D10:D15" si="3">F3</f>
+      <c r="E10" s="5" t="str">
+        <f>F3</f>
         <v>u(tśr), s</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <v>3.1041440322830982E-3</v>
+      </c>
+      <c r="Q10">
+        <f>P10*$L$11+$M$11</f>
+        <v>-1.0184019166935929</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C11" s="5" t="e">
+        <v>20,00(57)</v>
+      </c>
+      <c r="C11" s="5">
+        <v>878.8</v>
+      </c>
+      <c r="D11" s="5">
         <f>Pomiary!G4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>175.13333333333333</v>
+      </c>
+      <c r="E11" s="5">
+        <f>F4</f>
+        <v>1.1275621756692649</v>
+      </c>
+      <c r="F11" s="5">
+        <f>$B$9*($D$9-C11)*D11</f>
+        <v>1.5304075650879996</v>
+      </c>
+      <c r="G11" s="5">
+        <f>$B$9*($D$9-C11)*E11</f>
+        <v>9.8532338242367356E-3</v>
+      </c>
+      <c r="I11">
+        <f>1/(Pomiary!B4+273.15)</f>
+        <v>3.4112229234180458E-3</v>
+      </c>
+      <c r="J11">
+        <f>LN(F11)</f>
+        <v>0.42553408234130657</v>
+      </c>
+      <c r="L11">
+        <f t="array" ref="L11:M13">LINEST(J11:J15,I11:I15,TRUE,TRUE)</f>
+        <v>4750.0568017459409</v>
+      </c>
+      <c r="M11">
+        <v>-15.763262390838994</v>
+      </c>
+      <c r="P11">
+        <f>P10+0.00001</f>
+        <v>3.1141440322830982E-3</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ref="Q11:Q43" si="3">P11*$L$11+$M$11</f>
+        <v>-0.97090134867613287</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C12" s="5" t="e">
+        <v>27,00(57)</v>
+      </c>
+      <c r="C12" s="5">
+        <v>875.3</v>
+      </c>
+      <c r="D12" s="5">
         <f>Pomiary!G5</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="5" t="e">
+        <v>125.39999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <f>F5</f>
+        <v>3.479251739718368</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12:F15" si="4">$B$9*($D$9-C12)*D12</f>
+        <v>1.0963389012839997</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
+        <v>3.0418174079850722E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <f>1/(Pomiary!B5+273.15)</f>
+        <v>3.331667499583542E-3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J15" si="6">LN(F12)</f>
+        <v>9.1976357228254521E-2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>88.064197487237848</v>
+      </c>
+      <c r="M12">
+        <v>0.28628371021723736</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ref="P12:P75" si="7">P11+0.00001</f>
+        <v>3.1241440322830982E-3</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.92340078065867282</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C13" s="5" t="e">
+        <v>36,00(57)</v>
+      </c>
+      <c r="C13" s="5">
+        <v>868.3</v>
+      </c>
+      <c r="D13" s="5">
         <f>Pomiary!G6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="5" t="e">
+        <v>75.333333333333329</v>
+      </c>
+      <c r="E13" s="5">
+        <f>F6</f>
+        <v>2.243203025809299</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.65925307851999992</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9630599564294148E-2</v>
+      </c>
+      <c r="I13" s="7">
+        <f>1/(Pomiary!B6+273.15)</f>
+        <v>3.2346757237586934E-3</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>-0.41664778402888963</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>0.99896991083345132</v>
+      </c>
+      <c r="M13">
+        <v>2.1879136965796523E-2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>3.1341440322830982E-3</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.87590021264121276</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C14" s="5" t="e">
+        <v>43,00(57)</v>
+      </c>
+      <c r="C14" s="5">
+        <v>862</v>
+      </c>
+      <c r="D14" s="5">
         <f>Pomiary!G7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="5" t="e">
+        <v>54.699999999999996</v>
+      </c>
+      <c r="E14" s="5">
+        <f>F7</f>
+        <v>1.2955974271869062</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.4791018964799999</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1347773024494613E-2</v>
+      </c>
+      <c r="I14" s="7">
+        <f>1/(Pomiary!B7+273.15)</f>
+        <v>3.1630555116242292E-3</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>-0.73584197667885398</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>3.1441440322830983E-3</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.82839964462375448</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>0,0(0)</v>
-      </c>
-      <c r="C15" s="5" t="e">
+        <v>49,00(57)</v>
+      </c>
+      <c r="C15" s="5">
+        <v>857</v>
+      </c>
+      <c r="D15" s="5">
         <f>Pomiary!G8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D15" s="5" t="e">
+        <v>41.233333333333334</v>
+      </c>
+      <c r="E15" s="5">
+        <f>F8</f>
+        <v>0.84438340817427426</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.36139892645999994</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="5"/>
+        <v>7.4007903937304441E-3</v>
+      </c>
+      <c r="I15" s="7">
+        <f>1/(Pomiary!B8+273.15)</f>
+        <v>3.1041440322830982E-3</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>-1.0177728713320182</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>3.1541440322830983E-3</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>-0.78089907660629443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>3.1641440322830983E-3</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>-0.73339850858883437</v>
+      </c>
+    </row>
+    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>3.1741440322830983E-3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>-0.6858979405713761</v>
+      </c>
+    </row>
+    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>3.1841440322830984E-3</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="3"/>
+        <v>-0.63839737255391604</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>3.1941440322830984E-3</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>-0.59089680453645599</v>
+      </c>
+    </row>
+    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>3.2041440322830984E-3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>-0.54339623651899771</v>
+      </c>
+    </row>
+    <row r="21" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>3.2141440322830984E-3</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="3"/>
+        <v>-0.49589566850153766</v>
+      </c>
+    </row>
+    <row r="22" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>3.2241440322830985E-3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="3"/>
+        <v>-0.4483951004840776</v>
+      </c>
+    </row>
+    <row r="23" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>3.2341440322830985E-3</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="3"/>
+        <v>-0.40089453246661755</v>
+      </c>
+    </row>
+    <row r="24" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>3.2441440322830985E-3</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="3"/>
+        <v>-0.35339396444915927</v>
+      </c>
+    </row>
+    <row r="25" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>3.2541440322830986E-3</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="3"/>
+        <v>-0.30589339643169922</v>
+      </c>
+    </row>
+    <row r="26" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>3.2641440322830986E-3</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="3"/>
+        <v>-0.25839282841423916</v>
+      </c>
+    </row>
+    <row r="27" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>3.2741440322830986E-3</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>-0.21089226039678088</v>
+      </c>
+    </row>
+    <row r="28" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>3.2841440322830986E-3</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="3"/>
+        <v>-0.16339169237932083</v>
+      </c>
+    </row>
+    <row r="29" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>3.2941440322830987E-3</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="3"/>
+        <v>-0.11589112436186078</v>
+      </c>
+    </row>
+    <row r="30" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>3.3041440322830987E-3</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="3"/>
+        <v>-6.8390556344400721E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>3.3141440322830987E-3</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="3"/>
+        <v>-2.0889988326942444E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>3.3241440322830987E-3</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="3"/>
+        <v>2.6610579690517611E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>3.3341440322830988E-3</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="3"/>
+        <v>7.4111147707977665E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>3.3441440322830988E-3</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="3"/>
+        <v>0.12161171572543594</v>
+      </c>
+    </row>
+    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>3.3541440322830988E-3</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="3"/>
+        <v>0.169112283742896</v>
+      </c>
+    </row>
+    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>3.3641440322830988E-3</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="3"/>
+        <v>0.21661285176035605</v>
+      </c>
+    </row>
+    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>3.3741440322830989E-3</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="3"/>
+        <v>0.26411341977781611</v>
+      </c>
+    </row>
+    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P38">
+        <f t="shared" si="7"/>
+        <v>3.3841440322830989E-3</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="3"/>
+        <v>0.31161398779527438</v>
+      </c>
+    </row>
+    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>3.3941440322830989E-3</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="3"/>
+        <v>0.35911455581273266</v>
+      </c>
+    </row>
+    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>3.4041440322830989E-3</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="3"/>
+        <v>0.40661512383019449</v>
+      </c>
+    </row>
+    <row r="41" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>3.414144032283099E-3</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="3"/>
+        <v>0.45411569184765277</v>
+      </c>
+    </row>
+    <row r="42" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>3.424144032283099E-3</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>0.5016162598651146</v>
+      </c>
+    </row>
+    <row r="43" spans="16:17" x14ac:dyDescent="0.25">
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>3.434144032283099E-3</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="3"/>
+        <v>0.54911682788257288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -771,35 +6032,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2">
+        <f>1/SQRT(3)</f>
+        <v>0.57735026918962584</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <f>0.1/SQRT(3)</f>
+        <v>5.7735026918962581E-2</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -819,69 +6086,109 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="1" t="e">
+      <c r="B4" s="2">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2">
+        <v>176.4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2">
+        <v>174</v>
+      </c>
+      <c r="G4" s="1">
         <f>AVERAGE(C4:E4)</f>
-        <v>#DIV/0!</v>
+        <v>175.13333333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="1" t="e">
+      <c r="B5" s="2">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123.3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>123.2</v>
+      </c>
+      <c r="G5" s="1">
         <f>AVERAGE(C5:E5)</f>
-        <v>#DIV/0!</v>
+        <v>125.39999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="1" t="e">
+      <c r="B6" s="2">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="D6" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E6" s="2">
+        <v>73.8</v>
+      </c>
+      <c r="G6" s="1">
         <f>AVERAGE(C6:E6)</f>
-        <v>#DIV/0!</v>
+        <v>75.333333333333329</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="1" t="e">
+      <c r="B7" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>56.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>53.9</v>
+      </c>
+      <c r="G7" s="1">
         <f>AVERAGE(C7:E7)</f>
-        <v>#DIV/0!</v>
+        <v>54.699999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="1" t="e">
+      <c r="B8" s="2">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="G8" s="1">
         <f>AVERAGE(C8:E8)</f>
-        <v>#DIV/0!</v>
+        <v>41.233333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F06E1-78AB-4078-A081-B27B45639D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63812B87-D4C7-4264-90FB-B30F74BAE583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
@@ -131,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -212,7 +212,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -298,7 +298,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -333,6 +333,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:errBars>
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
@@ -345,19 +359,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.8532338242367356E-3</c:v>
+                    <c:v>4.5726363118268895E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0418174079850722E-2</c:v>
+                    <c:v>1.6059455763919032E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9630599564294148E-2</c:v>
+                    <c:v>1.0649111819543967E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1347773024494613E-2</c:v>
+                    <c:v>8.5304875633246801E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.4007903937304441E-3</c:v>
+                    <c:v>5.4746283125850226E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -369,19 +383,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.8532338242367356E-3</c:v>
+                    <c:v>4.5726363118268895E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0418174079850722E-2</c:v>
+                    <c:v>1.6059455763919032E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9630599564294148E-2</c:v>
+                    <c:v>1.0649111819543967E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1347773024494613E-2</c:v>
+                    <c:v>8.5304875633246801E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.4007903937304441E-3</c:v>
+                    <c:v>5.4746283125850226E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -450,19 +464,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,19 +488,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.5304075650879996</c:v>
+                  <c:v>1.0870729031040001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0963389012839997</c:v>
+                  <c:v>0.56099212784999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65925307851999992</c:v>
+                  <c:v>0.43959928731399989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4791018964799999</c:v>
+                  <c:v>0.35502005248000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36139892645999994</c:v>
+                  <c:v>0.29420268305999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -589,7 +603,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -627,7 +641,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569523752"/>
@@ -640,7 +654,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.6"/>
-          <c:min val="0.30000000000000004"/>
+          <c:min val="0.2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -713,7 +727,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -751,7 +765,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569522312"/>
@@ -799,7 +813,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -887,7 +901,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -929,19 +943,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3.4112229234180458E-3</c:v>
+                  <c:v>3.3766672294445383E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.331667499583542E-3</c:v>
+                  <c:v>3.2451728054518907E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2346757237586934E-3</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1630555116242292E-3</c:v>
+                  <c:v>3.1431714600031434E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1041440322830982E-3</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,19 +967,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.42553408234130657</c:v>
+                  <c:v>8.3488674063056184E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1976357228254521E-2</c:v>
+                  <c:v>-0.57804840591083639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41664778402888963</c:v>
+                  <c:v>-0.82189167766872584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.73584197667885398</c:v>
+                  <c:v>-1.0355810052428323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0177728713320182</c:v>
+                  <c:v>-1.2234863510059439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,7 +992,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1062,7 +1075,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1100,7 +1113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671949880"/>
@@ -1196,7 +1209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1234,7 +1247,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671956720"/>
@@ -1282,7 +1295,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1370,7 +1383,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1412,19 +1425,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3.4112229234180458E-3</c:v>
+                  <c:v>3.3766672294445383E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.331667499583542E-3</c:v>
+                  <c:v>3.2451728054518907E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2346757237586934E-3</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1630555116242292E-3</c:v>
+                  <c:v>3.1431714600031434E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1041440322830982E-3</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,19 +1449,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.42553408234130657</c:v>
+                  <c:v>8.3488674063056184E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1976357228254521E-2</c:v>
+                  <c:v>-0.57804840591083639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41664778402888963</c:v>
+                  <c:v>-0.82189167766872584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.73584197667885398</c:v>
+                  <c:v>-1.0355810052428323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0177728713320182</c:v>
+                  <c:v>-1.2234863510059439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,106 +1635,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-1.0184019166935929</c:v>
+                  <c:v>-1.2119689472441824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.97090134867613287</c:v>
+                  <c:v>-1.1652875247470327</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.92340078065867282</c:v>
+                  <c:v>-1.1186061022498848</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.87590021264121276</c:v>
+                  <c:v>-1.0719246797527351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.82839964462375448</c:v>
+                  <c:v>-1.0252432572555872</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.78089907660629443</c:v>
+                  <c:v>-0.97856183475843928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73339850858883437</c:v>
+                  <c:v>-0.93188041226128959</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.6858979405713761</c:v>
+                  <c:v>-0.88519898976414169</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.63839737255391604</c:v>
+                  <c:v>-0.838517567266992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.59089680453645599</c:v>
+                  <c:v>-0.7918361447698441</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.54339623651899771</c:v>
+                  <c:v>-0.74515472227269441</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.49589566850153766</c:v>
+                  <c:v>-0.69847329977554651</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.4483951004840776</c:v>
+                  <c:v>-0.6517918772783986</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.40089453246661755</c:v>
+                  <c:v>-0.60511045478124892</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.35339396444915927</c:v>
+                  <c:v>-0.55842903228410101</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.30589339643169922</c:v>
+                  <c:v>-0.51174760978695133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.25839282841423916</c:v>
+                  <c:v>-0.46506618728980342</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.21089226039678088</c:v>
+                  <c:v>-0.41838476479265374</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.16339169237932083</c:v>
+                  <c:v>-0.37170334229550583</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.11589112436186078</c:v>
+                  <c:v>-0.32502191979835793</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.8390556344400721E-2</c:v>
+                  <c:v>-0.27834049730120825</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.0889988326942444E-2</c:v>
+                  <c:v>-0.23165907480406034</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6610579690517611E-2</c:v>
+                  <c:v>-0.18497765230691066</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4111147707977665E-2</c:v>
+                  <c:v>-0.13829622980976275</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.12161171572543594</c:v>
+                  <c:v>-9.1614807312613067E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.169112283742896</c:v>
+                  <c:v>-4.4933384815465161E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21661285176035605</c:v>
+                  <c:v>1.7480376816845222E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.26411341977781611</c:v>
+                  <c:v>4.8429460178832429E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31161398779527438</c:v>
+                  <c:v>9.5110882675980335E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.35911455581273266</c:v>
+                  <c:v>0.14179230517313002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.40661512383019449</c:v>
+                  <c:v>0.18847372767027792</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.45411569184765277</c:v>
+                  <c:v>0.23515515016742761</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5016162598651146</c:v>
+                  <c:v>0.28183657266457551</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.54911682788257288</c:v>
+                  <c:v>0.3285179951617252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1817,7 +1830,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1855,7 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671949880"/>
@@ -1951,7 +1964,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1989,7 +2002,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671956720"/>
@@ -2037,7 +2050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2125,7 +2138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2200,7 +2213,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pl-PL"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2212,19 +2225,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3.4112229234180458E-3</c:v>
+                  <c:v>3.3766672294445383E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.331667499583542E-3</c:v>
+                  <c:v>3.2451728054518907E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2346757237586934E-3</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1630555116242292E-3</c:v>
+                  <c:v>3.1431714600031434E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1041440322830982E-3</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2236,19 +2249,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.42553408234130657</c:v>
+                  <c:v>8.3488674063056184E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.1976357228254521E-2</c:v>
+                  <c:v>-0.57804840591083639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.41664778402888963</c:v>
+                  <c:v>-0.82189167766872584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.73584197667885398</c:v>
+                  <c:v>-1.0355810052428323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.0177728713320182</c:v>
+                  <c:v>-1.2234863510059439</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2344,7 +2357,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2382,7 +2395,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671949880"/>
@@ -2478,7 +2491,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2516,7 +2529,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671956720"/>
@@ -2564,7 +2577,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4952,6 +4965,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>416925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>18048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D46135-5B29-06CC-EBDD-CD6A70BE81FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1831731"/>
+          <a:ext cx="7163800" cy="3315163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5217,19 +5279,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str">
         <f>Pomiary!A1</f>
         <v>ub(T), C</v>
@@ -5245,7 +5307,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>Pomiary!A2</f>
         <v>ub(t), s</v>
@@ -5264,7 +5326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>Pomiary!A3</f>
         <v>LP</v>
@@ -5286,137 +5348,137 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>Pomiary!A4</f>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B4,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>20,00(57)</v>
+        <v>23,00(57)</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G4,RIGHT(TEXT(F4,"0,00E+00"),2)+1,TRUE),"(",LEFT(F4*10^LEN(F4),2),")")</f>
-        <v>175,1(11)</v>
+        <v>124,40(52)</v>
       </c>
       <c r="D4" s="5">
         <f>STDEVA(Pomiary!C4:E4)</f>
-        <v>1.2055427546683446</v>
+        <v>0.55677643628300633</v>
       </c>
       <c r="E4" s="5">
         <f>D4*$D$1/SQRT(3-1)</f>
-        <v>1.1260830904807482</v>
+        <v>0.52007822007848392</v>
       </c>
       <c r="F4" s="5">
         <f>SQRT(E4^2+$B$2^2)</f>
-        <v>1.1275621756692649</v>
+        <v>0.52327305332239049</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f>Pomiary!A5</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B5,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>27,00(57)</v>
+        <v>35,00(57)</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G5,RIGHT(TEXT(F5,"0,00E+00"),2)+1,TRUE),"(",LEFT(F5*10^LEN(F5),2),")")</f>
-        <v>125,4(34)</v>
+        <v>64,2(18)</v>
       </c>
       <c r="D5" s="5">
         <f>STDEVA(Pomiary!C5:E5)</f>
-        <v>3.724244889907208</v>
+        <v>1.9655363983740781</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E8" si="0">D5*$D$1/SQRT(3-1)</f>
-        <v>3.4787726765340614</v>
+        <v>1.8359840771822271</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F8" si="1">SQRT(E5^2+$B$2^2)</f>
-        <v>3.479251739718368</v>
+        <v>1.836891631261901</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f>Pomiary!A6</f>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B6,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>36,00(57)</v>
+        <v>40,00(57)</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G6,RIGHT(TEXT(F6,"0,00E+00"),2)+1,TRUE),"(",LEFT(F6*10^LEN(F6),2),")")</f>
-        <v>75,3(22)</v>
+        <v>50,2(12)</v>
       </c>
       <c r="D6" s="5">
         <f>STDEVA(Pomiary!C6:E6)</f>
-        <v>2.4006943440041111</v>
+        <v>1.301281419729543</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>2.2424599175161775</v>
+        <v>1.2155114341982423</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>2.243203025809299</v>
+        <v>1.2168818266372463</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f>Pomiary!A7</f>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B7,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>43,00(57)</v>
+        <v>45,00(57)</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G7,RIGHT(TEXT(F7,"0,00E+00"),2)+1,TRUE),"(",LEFT(F7*10^LEN(F7),2),")")</f>
-        <v>54,7(12)</v>
+        <v>40,53(97)</v>
       </c>
       <c r="D7" s="5">
         <f>STDEVA(Pomiary!C7:E7)</f>
-        <v>1.385640646055101</v>
+        <v>1.0408329997330665</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>1.2943103800866302</v>
+        <v>0.97222967536825722</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>1.2955974271869062</v>
+        <v>0.9739424392642515</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f>Pomiary!A8</f>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B8,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>49,00(57)</v>
+        <v>50,00(57)</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G8,RIGHT(TEXT(F8,"0,00E+00"),2)+1,TRUE),"(",LEFT(F8*10^LEN(F8),2),")")</f>
-        <v>41,23(84)</v>
+        <v>33,57(62)</v>
       </c>
       <c r="D8" s="5">
         <f>STDEVA(Pomiary!C8:E8)</f>
-        <v>0.90184995056458095</v>
+        <v>0.66583281184793786</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0.84240726888285444</v>
+        <v>0.62194647813671633</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>0.84438340817427426</v>
+        <v>0.62462048877698395</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5443,9 +5505,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
-        <f t="shared" ref="A10:C15" si="2">A3</f>
+        <f t="shared" ref="A10:B15" si="2">A3</f>
         <v>LP</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -5460,7 +5522,7 @@
         <v>tśr, s</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>F3</f>
+        <f t="shared" ref="E10:E15" si="3">F3</f>
         <v>u(tśr), s</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -5486,540 +5548,540 @@
       </c>
       <c r="Q10">
         <f>P10*$L$11+$M$11</f>
-        <v>-1.0184019166935929</v>
+        <v>-1.2119689472441824</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>20,00(57)</v>
+        <v>23,00(57)</v>
       </c>
       <c r="C11" s="5">
         <v>878.8</v>
       </c>
       <c r="D11" s="5">
         <f>Pomiary!G4</f>
-        <v>175.13333333333333</v>
+        <v>124.40000000000002</v>
       </c>
       <c r="E11" s="5">
-        <f>F4</f>
-        <v>1.1275621756692649</v>
+        <f t="shared" si="3"/>
+        <v>0.52327305332239049</v>
       </c>
       <c r="F11" s="5">
         <f>$B$9*($D$9-C11)*D11</f>
-        <v>1.5304075650879996</v>
+        <v>1.0870729031040001</v>
       </c>
       <c r="G11" s="5">
         <f>$B$9*($D$9-C11)*E11</f>
-        <v>9.8532338242367356E-3</v>
+        <v>4.5726363118268895E-3</v>
       </c>
       <c r="I11">
         <f>1/(Pomiary!B4+273.15)</f>
-        <v>3.4112229234180458E-3</v>
+        <v>3.3766672294445383E-3</v>
       </c>
       <c r="J11">
         <f>LN(F11)</f>
-        <v>0.42553408234130657</v>
+        <v>8.3488674063056184E-2</v>
       </c>
       <c r="L11">
         <f t="array" ref="L11:M13">LINEST(J11:J15,I11:I15,TRUE,TRUE)</f>
-        <v>4750.0568017459409</v>
+        <v>4668.142249714856</v>
       </c>
       <c r="M11">
-        <v>-15.763262390838994</v>
+        <v>-15.702554853545148</v>
       </c>
       <c r="P11">
         <f>P10+0.00001</f>
         <v>3.1141440322830982E-3</v>
       </c>
       <c r="Q11">
-        <f t="shared" ref="Q11:Q43" si="3">P11*$L$11+$M$11</f>
-        <v>-0.97090134867613287</v>
+        <f t="shared" ref="Q11:Q43" si="4">P11*$L$11+$M$11</f>
+        <v>-1.1652875247470327</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>27,00(57)</v>
+        <v>35,00(57)</v>
       </c>
       <c r="C12" s="5">
         <v>875.3</v>
       </c>
       <c r="D12" s="5">
         <f>Pomiary!G5</f>
-        <v>125.39999999999999</v>
+        <v>64.166666666666671</v>
       </c>
       <c r="E12" s="5">
-        <f>F5</f>
-        <v>3.479251739718368</v>
+        <f t="shared" si="3"/>
+        <v>1.836891631261901</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F15" si="4">$B$9*($D$9-C12)*D12</f>
-        <v>1.0963389012839997</v>
+        <f t="shared" ref="F12:F15" si="5">$B$9*($D$9-C12)*D12</f>
+        <v>0.56099212784999997</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
-        <v>3.0418174079850722E-2</v>
+        <f t="shared" ref="G12:G15" si="6">$B$9*($D$9-C12)*E12</f>
+        <v>1.6059455763919032E-2</v>
       </c>
       <c r="I12" s="7">
         <f>1/(Pomiary!B5+273.15)</f>
-        <v>3.331667499583542E-3</v>
+        <v>3.2451728054518907E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J15" si="6">LN(F12)</f>
-        <v>9.1976357228254521E-2</v>
+        <f t="shared" ref="J12:J15" si="7">LN(F12)</f>
+        <v>-0.57804840591083639</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
       </c>
       <c r="L12">
-        <v>88.064197487237848</v>
+        <v>145.21101980352057</v>
       </c>
       <c r="M12">
-        <v>0.28628371021723736</v>
+        <v>0.4664247368566703</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="P12">
-        <f t="shared" ref="P12:P75" si="7">P11+0.00001</f>
+        <f t="shared" ref="P12:P43" si="8">P11+0.00001</f>
         <v>3.1241440322830982E-3</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="3"/>
-        <v>-0.92340078065867282</v>
+        <f t="shared" si="4"/>
+        <v>-1.1186061022498848</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>36,00(57)</v>
+        <v>40,00(57)</v>
       </c>
       <c r="C13" s="5">
         <v>868.3</v>
       </c>
       <c r="D13" s="5">
         <f>Pomiary!G6</f>
-        <v>75.333333333333329</v>
+        <v>50.233333333333327</v>
       </c>
       <c r="E13" s="5">
-        <f>F6</f>
-        <v>2.243203025809299</v>
+        <f t="shared" si="3"/>
+        <v>1.2168818266372463</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="4"/>
-        <v>0.65925307851999992</v>
+        <f t="shared" si="5"/>
+        <v>0.43959928731399989</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="5"/>
-        <v>1.9630599564294148E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.0649111819543967E-2</v>
       </c>
       <c r="I13" s="7">
         <f>1/(Pomiary!B6+273.15)</f>
-        <v>3.2346757237586934E-3</v>
+        <v>3.1933578157432542E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
-        <v>-0.41664778402888963</v>
+        <f t="shared" si="7"/>
+        <v>-0.82189167766872584</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
       </c>
       <c r="L13">
-        <v>0.99896991083345132</v>
+        <v>0.99710550132686027</v>
       </c>
       <c r="M13">
-        <v>2.1879136965796523E-2</v>
+        <v>3.1510409225267606E-2</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1341440322830982E-3</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="3"/>
-        <v>-0.87590021264121276</v>
+        <f t="shared" si="4"/>
+        <v>-1.0719246797527351</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>43,00(57)</v>
+        <v>45,00(57)</v>
       </c>
       <c r="C14" s="5">
         <v>862</v>
       </c>
       <c r="D14" s="5">
         <f>Pomiary!G7</f>
-        <v>54.699999999999996</v>
+        <v>40.533333333333339</v>
       </c>
       <c r="E14" s="5">
-        <f>F7</f>
-        <v>1.2955974271869062</v>
+        <f t="shared" si="3"/>
+        <v>0.9739424392642515</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.4791018964799999</v>
+        <f t="shared" si="5"/>
+        <v>0.35502005248000001</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="5"/>
-        <v>1.1347773024494613E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.5304875633246801E-3</v>
       </c>
       <c r="I14" s="7">
         <f>1/(Pomiary!B7+273.15)</f>
-        <v>3.1630555116242292E-3</v>
+        <v>3.1431714600031434E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
-        <v>-0.73584197667885398</v>
+        <f t="shared" si="7"/>
+        <v>-1.0355810052428323</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1441440322830983E-3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="3"/>
-        <v>-0.82839964462375448</v>
+        <f t="shared" si="4"/>
+        <v>-1.0252432572555872</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>49,00(57)</v>
+        <v>50,00(57)</v>
       </c>
       <c r="C15" s="5">
         <v>857</v>
       </c>
       <c r="D15" s="5">
         <f>Pomiary!G8</f>
-        <v>41.233333333333334</v>
+        <v>33.566666666666663</v>
       </c>
       <c r="E15" s="5">
-        <f>F8</f>
-        <v>0.84438340817427426</v>
+        <f t="shared" si="3"/>
+        <v>0.62462048877698395</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="4"/>
-        <v>0.36139892645999994</v>
+        <f t="shared" si="5"/>
+        <v>0.29420268305999991</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
-        <v>7.4007903937304441E-3</v>
+        <f t="shared" si="6"/>
+        <v>5.4746283125850226E-3</v>
       </c>
       <c r="I15" s="7">
         <f>1/(Pomiary!B8+273.15)</f>
-        <v>3.1041440322830982E-3</v>
+        <v>3.0945381401825778E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
-        <v>-1.0177728713320182</v>
+        <f t="shared" si="7"/>
+        <v>-1.2234863510059439</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1541440322830983E-3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="3"/>
-        <v>-0.78089907660629443</v>
+        <f t="shared" si="4"/>
+        <v>-0.97856183475843928</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1641440322830983E-3</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="3"/>
-        <v>-0.73339850858883437</v>
+        <f t="shared" si="4"/>
+        <v>-0.93188041226128959</v>
       </c>
     </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1741440322830983E-3</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>-0.6858979405713761</v>
+        <f t="shared" si="4"/>
+        <v>-0.88519898976414169</v>
       </c>
     </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1841440322830984E-3</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="3"/>
-        <v>-0.63839737255391604</v>
+        <f t="shared" si="4"/>
+        <v>-0.838517567266992</v>
       </c>
     </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.1941440322830984E-3</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
-        <v>-0.59089680453645599</v>
+        <f t="shared" si="4"/>
+        <v>-0.7918361447698441</v>
       </c>
     </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2041440322830984E-3</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="3"/>
-        <v>-0.54339623651899771</v>
+        <f t="shared" si="4"/>
+        <v>-0.74515472227269441</v>
       </c>
     </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2141440322830984E-3</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="3"/>
-        <v>-0.49589566850153766</v>
+        <f t="shared" si="4"/>
+        <v>-0.69847329977554651</v>
       </c>
     </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2241440322830985E-3</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="3"/>
-        <v>-0.4483951004840776</v>
+        <f t="shared" si="4"/>
+        <v>-0.6517918772783986</v>
       </c>
     </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2341440322830985E-3</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="3"/>
-        <v>-0.40089453246661755</v>
+        <f t="shared" si="4"/>
+        <v>-0.60511045478124892</v>
       </c>
     </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2441440322830985E-3</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="3"/>
-        <v>-0.35339396444915927</v>
+        <f t="shared" si="4"/>
+        <v>-0.55842903228410101</v>
       </c>
     </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2541440322830986E-3</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="3"/>
-        <v>-0.30589339643169922</v>
+        <f t="shared" si="4"/>
+        <v>-0.51174760978695133</v>
       </c>
     </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2641440322830986E-3</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="3"/>
-        <v>-0.25839282841423916</v>
+        <f t="shared" si="4"/>
+        <v>-0.46506618728980342</v>
       </c>
     </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2741440322830986E-3</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="3"/>
-        <v>-0.21089226039678088</v>
+        <f t="shared" si="4"/>
+        <v>-0.41838476479265374</v>
       </c>
     </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2841440322830986E-3</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="3"/>
-        <v>-0.16339169237932083</v>
+        <f t="shared" si="4"/>
+        <v>-0.37170334229550583</v>
       </c>
     </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2941440322830987E-3</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="3"/>
-        <v>-0.11589112436186078</v>
+        <f t="shared" si="4"/>
+        <v>-0.32502191979835793</v>
       </c>
     </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3041440322830987E-3</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="3"/>
-        <v>-6.8390556344400721E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.27834049730120825</v>
       </c>
     </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3141440322830987E-3</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>-2.0889988326942444E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.23165907480406034</v>
       </c>
     </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3241440322830987E-3</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="3"/>
-        <v>2.6610579690517611E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.18497765230691066</v>
       </c>
     </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3341440322830988E-3</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="3"/>
-        <v>7.4111147707977665E-2</v>
+        <f t="shared" si="4"/>
+        <v>-0.13829622980976275</v>
       </c>
     </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3441440322830988E-3</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="3"/>
-        <v>0.12161171572543594</v>
+        <f t="shared" si="4"/>
+        <v>-9.1614807312613067E-2</v>
       </c>
     </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3541440322830988E-3</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
-        <v>0.169112283742896</v>
+        <f t="shared" si="4"/>
+        <v>-4.4933384815465161E-2</v>
       </c>
     </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3641440322830988E-3</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
-        <v>0.21661285176035605</v>
+        <f t="shared" si="4"/>
+        <v>1.7480376816845222E-3</v>
       </c>
     </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3741440322830989E-3</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
-        <v>0.26411341977781611</v>
+        <f t="shared" si="4"/>
+        <v>4.8429460178832429E-2</v>
       </c>
     </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3841440322830989E-3</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
-        <v>0.31161398779527438</v>
+        <f t="shared" si="4"/>
+        <v>9.5110882675980335E-2</v>
       </c>
     </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.3941440322830989E-3</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
-        <v>0.35911455581273266</v>
+        <f t="shared" si="4"/>
+        <v>0.14179230517313002</v>
       </c>
     </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.4041440322830989E-3</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
-        <v>0.40661512383019449</v>
+        <f t="shared" si="4"/>
+        <v>0.18847372767027792</v>
       </c>
     </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.414144032283099E-3</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
-        <v>0.45411569184765277</v>
+        <f t="shared" si="4"/>
+        <v>0.23515515016742761</v>
       </c>
     </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.424144032283099E-3</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
-        <v>0.5016162598651146</v>
+        <f t="shared" si="4"/>
+        <v>0.28183657266457551</v>
       </c>
     </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="16:17" x14ac:dyDescent="0.35">
       <c r="P43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.434144032283099E-3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
-        <v>0.54911682788257288</v>
+        <f t="shared" si="4"/>
+        <v>0.3285179951617252</v>
       </c>
     </row>
   </sheetData>
@@ -6032,18 +6094,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6052,7 +6114,7 @@
         <v>0.57735026918962584</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6066,7 +6128,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6086,113 +6148,114 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2">
-        <v>176.4</v>
+        <v>124.5</v>
       </c>
       <c r="D4" s="2">
-        <v>175</v>
+        <v>123.8</v>
       </c>
       <c r="E4" s="2">
-        <v>174</v>
+        <v>124.9</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(C4:E4)</f>
-        <v>175.13333333333333</v>
+        <v>124.40000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>129.69999999999999</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D5" s="2">
-        <v>123.3</v>
+        <v>63.4</v>
       </c>
       <c r="E5" s="2">
-        <v>123.2</v>
+        <v>62.7</v>
       </c>
       <c r="G5" s="1">
         <f>AVERAGE(C5:E5)</f>
-        <v>125.39999999999999</v>
+        <v>64.166666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
-        <v>78.099999999999994</v>
+        <v>51.5</v>
       </c>
       <c r="D6" s="2">
-        <v>74.099999999999994</v>
+        <v>48.9</v>
       </c>
       <c r="E6" s="2">
-        <v>73.8</v>
+        <v>50.3</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(C6:E6)</f>
-        <v>75.333333333333329</v>
+        <v>50.233333333333327</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
-        <v>56.3</v>
+        <v>41.7</v>
       </c>
       <c r="D7" s="2">
-        <v>53.9</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E7" s="2">
-        <v>53.9</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C7:E7)</f>
-        <v>54.699999999999996</v>
+        <v>40.533333333333339</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>41.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="D8" s="2">
-        <v>42.1</v>
+        <v>33.4</v>
       </c>
       <c r="E8" s="2">
-        <v>40.299999999999997</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C8:E8)</f>
-        <v>41.233333333333334</v>
+        <v>33.566666666666663</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63812B87-D4C7-4264-90FB-B30F74BAE583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93C611-C368-4E31-A3F1-7EA1DB2C60F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>ub(T), C</t>
   </si>
@@ -120,18 +121,37 @@
     <t>8. i 9.</t>
   </si>
   <si>
-    <t>x</t>
+    <t>10)</t>
   </si>
   <si>
-    <t>y</t>
+    <t>k, J/K</t>
+  </si>
+  <si>
+    <t>W, J/mol</t>
+  </si>
+  <si>
+    <t>u(W), J/mol</t>
+  </si>
+  <si>
+    <t>W, J</t>
+  </si>
+  <si>
+    <t>u(W), J</t>
+  </si>
+  <si>
+    <t>W, eV</t>
+  </si>
+  <si>
+    <t>u(W), eV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="212" formatCode="0.00000000000000000000000000000000000000000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -196,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="212" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -936,6 +957,34 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$I$11:$I$15</c:f>
@@ -988,1288 +1037,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E102-4A3C-8E18-40FDCCBE10D3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="671956720"/>
-        <c:axId val="671949880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="671956720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="3.1000000000000008E-3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>1/T, 1/K</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671949880"/>
-        <c:crossesAt val="-1.2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="671949880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ln(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>η), </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>ln(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Pa*s</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671956720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ratury wyrażonej w kelwinach</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Zadania!$I$11:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3.3766672294445383E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2451728054518907E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1933578157432542E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1431714600031434E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0945381401825778E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Zadania!$J$11:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.3488674063056184E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.57804840591083639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.82189167766872584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0355810052428323</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.2234863510059439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B84C-4102-ABDD-71542B0E129E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="671956720"/>
-        <c:axId val="671949880"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>regr</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Zadania!$P$10:$P$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>3.1041440322830982E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.1141440322830982E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1241440322830982E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1341440322830982E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1441440322830983E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1541440322830983E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1641440322830983E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.1741440322830983E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.1841440322830984E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1941440322830984E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2041440322830984E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2141440322830984E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2241440322830985E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2341440322830985E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2441440322830985E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2541440322830986E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2641440322830986E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.2741440322830986E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2841440322830986E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.2941440322830987E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.3041440322830987E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.3141440322830987E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.3241440322830987E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.3341440322830988E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.3441440322830988E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3541440322830988E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.3641440322830988E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.3741440322830989E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3841440322830989E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.3941440322830989E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.4041440322830989E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.414144032283099E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.424144032283099E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.434144032283099E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Zadania!$Q$10:$Q$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>-1.2119689472441824</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.1652875247470327</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.1186061022498848</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0719246797527351</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.0252432572555872</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.97856183475843928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.93188041226128959</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.88519898976414169</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.838517567266992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.7918361447698441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.74515472227269441</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.69847329977554651</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.6517918772783986</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.60511045478124892</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.55842903228410101</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.51174760978695133</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.46506618728980342</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.41838476479265374</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.37170334229550583</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.32502191979835793</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.27834049730120825</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.23165907480406034</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.18497765230691066</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.13829622980976275</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-9.1614807312613067E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-4.4933384815465161E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.7480376816845222E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.8429460178832429E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.5110882675980335E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.14179230517313002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.18847372767027792</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.23515515016742761</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.28183657266457551</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.3285179951617252</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B84C-4102-ABDD-71542B0E129E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="671956720"/>
-        <c:axId val="671949880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="671956720"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="3.1000000000000008E-3"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>1/T, 1/K</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671949880"/>
-        <c:crossesAt val="-1.2"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="671949880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>ln(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR"/>
-                  <a:t>η), </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>ln(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Pa*s</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="pl-PL"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="671956720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pl-PL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>ratury wyrażonej w kelwinach</a:t>
-            </a:r>
-            <a:endParaRPr lang="pl-PL"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Zadania!$I$11:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>3.3766672294445383E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.2451728054518907E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1933578157432542E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1431714600031434E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.0945381401825778E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Zadania!$J$11:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>8.3488674063056184E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.57804840591083639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.82189167766872584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.0355810052428323</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.2234863510059439</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A897-4C56-A850-7038CF87673F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2668,86 +1435,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3265,1038 +1952,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4881,82 +2536,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>57978</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>345872</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>70261</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Wykres 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562BE7F4-DDAC-4CDB-86D5-E14927D125CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>298173</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>3998</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Wykres 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513B312A-100A-471A-A251-48C899971CDF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5277,10 +2856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="G17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5288,10 +2867,12 @@
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str">
         <f>Pomiary!A1</f>
         <v>ub(T), C</v>
@@ -5307,7 +2888,7 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>Pomiary!A2</f>
         <v>ub(t), s</v>
@@ -5326,7 +2907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>Pomiary!A3</f>
         <v>LP</v>
@@ -5348,7 +2929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>Pomiary!A4</f>
         <v>1</v>
@@ -5374,7 +2955,7 @@
         <v>0.52327305332239049</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f>Pomiary!A5</f>
         <v>2</v>
@@ -5400,7 +2981,7 @@
         <v>1.836891631261901</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f>Pomiary!A6</f>
         <v>3</v>
@@ -5426,7 +3007,7 @@
         <v>1.2168818266372463</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f>Pomiary!A7</f>
         <v>4</v>
@@ -5452,7 +3033,7 @@
         <v>0.9739424392642515</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f>Pomiary!A8</f>
         <v>5</v>
@@ -5478,7 +3059,7 @@
         <v>0.62462048877698395</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5498,14 +3079,8 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f t="shared" ref="A10:B15" si="2">A3</f>
         <v>LP</v>
@@ -5543,15 +3118,8 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="P10">
-        <v>3.1041440322830982E-3</v>
-      </c>
-      <c r="Q10">
-        <f>P10*$L$11+$M$11</f>
-        <v>-1.2119689472441824</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -5594,16 +3162,8 @@
       <c r="M11">
         <v>-15.702554853545148</v>
       </c>
-      <c r="P11">
-        <f>P10+0.00001</f>
-        <v>3.1141440322830982E-3</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" ref="Q11:Q43" si="4">P11*$L$11+$M$11</f>
-        <v>-1.1652875247470327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -5624,11 +3184,11 @@
         <v>1.836891631261901</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" ref="F12:F15" si="5">$B$9*($D$9-C12)*D12</f>
+        <f t="shared" ref="F12:F15" si="4">$B$9*($D$9-C12)*D12</f>
         <v>0.56099212784999997</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:G15" si="6">$B$9*($D$9-C12)*E12</f>
+        <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
         <v>1.6059455763919032E-2</v>
       </c>
       <c r="I12" s="7">
@@ -5636,7 +3196,7 @@
         <v>3.2451728054518907E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J15" si="7">LN(F12)</f>
+        <f t="shared" ref="J12:J15" si="6">LN(F12)</f>
         <v>-0.57804840591083639</v>
       </c>
       <c r="K12" t="s">
@@ -5651,16 +3211,8 @@
       <c r="N12" t="s">
         <v>23</v>
       </c>
-      <c r="P12">
-        <f t="shared" ref="P12:P43" si="8">P11+0.00001</f>
-        <v>3.1241440322830982E-3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>-1.1186061022498848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5681,11 +3233,11 @@
         <v>1.2168818266372463</v>
       </c>
       <c r="F13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.43959928731399989</v>
+      </c>
+      <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>0.43959928731399989</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="6"/>
         <v>1.0649111819543967E-2</v>
       </c>
       <c r="I13" s="7">
@@ -5693,7 +3245,7 @@
         <v>3.1933578157432542E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.82189167766872584</v>
       </c>
       <c r="K13" t="s">
@@ -5705,16 +3257,8 @@
       <c r="M13">
         <v>3.1510409225267606E-2</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="8"/>
-        <v>3.1341440322830982E-3</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>-1.0719246797527351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5735,11 +3279,11 @@
         <v>0.9739424392642515</v>
       </c>
       <c r="F14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.35502005248000001</v>
+      </c>
+      <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>0.35502005248000001</v>
-      </c>
-      <c r="G14" s="5">
-        <f t="shared" si="6"/>
         <v>8.5304875633246801E-3</v>
       </c>
       <c r="I14" s="7">
@@ -5747,19 +3291,11 @@
         <v>3.1431714600031434E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.0355810052428323</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="8"/>
-        <v>3.1441440322830983E-3</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>-1.0252432572555872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -5780,11 +3316,11 @@
         <v>0.62462048877698395</v>
       </c>
       <c r="F15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.29420268305999991</v>
+      </c>
+      <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>0.29420268305999991</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="6"/>
         <v>5.4746283125850226E-3</v>
       </c>
       <c r="I15" s="7">
@@ -5792,296 +3328,100 @@
         <v>3.0945381401825778E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.2234863510059439</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="8"/>
-        <v>3.1541440322830983E-3</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>-0.97856183475843928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="P16">
-        <f t="shared" si="8"/>
-        <v>3.1641440322830983E-3</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>-0.93188041226128959</v>
-      </c>
-    </row>
-    <row r="17" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P17">
-        <f t="shared" si="8"/>
-        <v>3.1741440322830983E-3</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>-0.88519898976414169</v>
-      </c>
-    </row>
-    <row r="18" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P18">
-        <f t="shared" si="8"/>
-        <v>3.1841440322830984E-3</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>-0.838517567266992</v>
-      </c>
-    </row>
-    <row r="19" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P19">
-        <f t="shared" si="8"/>
-        <v>3.1941440322830984E-3</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="4"/>
-        <v>-0.7918361447698441</v>
-      </c>
-    </row>
-    <row r="20" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P20">
-        <f t="shared" si="8"/>
-        <v>3.2041440322830984E-3</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>-0.74515472227269441</v>
-      </c>
-    </row>
-    <row r="21" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P21">
-        <f t="shared" si="8"/>
-        <v>3.2141440322830984E-3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="4"/>
-        <v>-0.69847329977554651</v>
-      </c>
-    </row>
-    <row r="22" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P22">
-        <f t="shared" si="8"/>
-        <v>3.2241440322830985E-3</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>-0.6517918772783986</v>
-      </c>
-    </row>
-    <row r="23" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P23">
-        <f t="shared" si="8"/>
-        <v>3.2341440322830985E-3</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>-0.60511045478124892</v>
-      </c>
-    </row>
-    <row r="24" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P24">
-        <f t="shared" si="8"/>
-        <v>3.2441440322830985E-3</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>-0.55842903228410101</v>
-      </c>
-    </row>
-    <row r="25" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P25">
-        <f t="shared" si="8"/>
-        <v>3.2541440322830986E-3</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>-0.51174760978695133</v>
-      </c>
-    </row>
-    <row r="26" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P26">
-        <f t="shared" si="8"/>
-        <v>3.2641440322830986E-3</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>-0.46506618728980342</v>
-      </c>
-    </row>
-    <row r="27" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P27">
-        <f t="shared" si="8"/>
-        <v>3.2741440322830986E-3</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>-0.41838476479265374</v>
-      </c>
-    </row>
-    <row r="28" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P28">
-        <f t="shared" si="8"/>
-        <v>3.2841440322830986E-3</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>-0.37170334229550583</v>
-      </c>
-    </row>
-    <row r="29" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P29">
-        <f t="shared" si="8"/>
-        <v>3.2941440322830987E-3</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>-0.32502191979835793</v>
-      </c>
-    </row>
-    <row r="30" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>3.3041440322830987E-3</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>-0.27834049730120825</v>
-      </c>
-    </row>
-    <row r="31" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P31">
-        <f t="shared" si="8"/>
-        <v>3.3141440322830987E-3</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>-0.23165907480406034</v>
-      </c>
-    </row>
-    <row r="32" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P32">
-        <f t="shared" si="8"/>
-        <v>3.3241440322830987E-3</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>-0.18497765230691066</v>
-      </c>
-    </row>
-    <row r="33" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P33">
-        <f t="shared" si="8"/>
-        <v>3.3341440322830988E-3</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>-0.13829622980976275</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P34">
-        <f t="shared" si="8"/>
-        <v>3.3441440322830988E-3</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
-        <v>-9.1614807312613067E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P35">
-        <f t="shared" si="8"/>
-        <v>3.3541440322830988E-3</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="4"/>
-        <v>-4.4933384815465161E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P36">
-        <f t="shared" si="8"/>
-        <v>3.3641440322830988E-3</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="4"/>
-        <v>1.7480376816845222E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P37">
-        <f t="shared" si="8"/>
-        <v>3.3741440322830989E-3</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="4"/>
-        <v>4.8429460178832429E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P38">
-        <f t="shared" si="8"/>
-        <v>3.3841440322830989E-3</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="4"/>
-        <v>9.5110882675980335E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P39">
-        <f t="shared" si="8"/>
-        <v>3.3941440322830989E-3</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="4"/>
-        <v>0.14179230517313002</v>
-      </c>
-    </row>
-    <row r="40" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P40">
-        <f t="shared" si="8"/>
-        <v>3.4041440322830989E-3</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="4"/>
-        <v>0.18847372767027792</v>
-      </c>
-    </row>
-    <row r="41" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P41">
-        <f t="shared" si="8"/>
-        <v>3.414144032283099E-3</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="4"/>
-        <v>0.23515515016742761</v>
-      </c>
-    </row>
-    <row r="42" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P42">
-        <f t="shared" si="8"/>
-        <v>3.424144032283099E-3</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="4"/>
-        <v>0.28183657266457551</v>
-      </c>
-    </row>
-    <row r="43" spans="16:17" x14ac:dyDescent="0.35">
-      <c r="P43">
-        <f t="shared" si="8"/>
-        <v>3.434144032283099E-3</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="4"/>
-        <v>0.3285179951617252</v>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <f>1.38*10^(-23)</f>
+        <v>1.3800000000000001E-23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <f>F18*L11</f>
+        <v>6.4420363046065019E-20</v>
+      </c>
+      <c r="J20">
+        <f>F18*L12</f>
+        <v>2.003912073288584E-21</v>
+      </c>
+      <c r="K20" t="str">
+        <f>_xlfn.CONCAT(FIXED(I20,RIGHT(TEXT(J20,"0,00E+00"),2)+1,TRUE),"(",LEFT(J20*10^LEN(J20),2),")")</f>
+        <v>0,0000000000000000000644(0,)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <f>I20*(1.66*10^(-24))</f>
+        <v>1.0693780265646793E-43</v>
+      </c>
+      <c r="J22">
+        <f>J20*(1.66*10^(-24))</f>
+        <v>3.3264940416590494E-45</v>
+      </c>
+      <c r="K22" t="str">
+        <f>_xlfn.CONCAT(FIXED(I22,RIGHT(TEXT(J22,"0,00E+00"),2)+1,TRUE),"(",LEFT(J22*10^LEN(J22),2),")")</f>
+        <v>0,0000000000000000000000000000000000000000001069(3,)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <f>I22*6.24*10^18</f>
+        <v>6.6729188857635996E-25</v>
+      </c>
+      <c r="J24">
+        <f>J22*6.24*10^18</f>
+        <v>2.0757322819952467E-26</v>
+      </c>
+      <c r="K24" t="str">
+        <f>_xlfn.CONCAT(FIXED(I24,RIGHT(TEXT(J24,"0,00E+00"),2)+1,TRUE),"(",LEFT(J24*10^LEN(J24),2),")")</f>
+        <v>0,000000000000000000000000667(2,)</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6091,6 +3431,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E235F9-60CB-49CA-BB40-675AA953A970}">
+  <dimension ref="D9:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="77.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D9" s="8">
+        <f>10^22</f>
+        <v>1E+22</v>
+      </c>
+      <c r="E9" s="8">
+        <f>10^22</f>
+        <v>1E+22</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D10" s="8">
+        <f>D12*D9</f>
+        <v>644.20363046065017</v>
+      </c>
+      <c r="E10" s="8">
+        <f>E12*E9</f>
+        <v>20.039120732885841</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D12" s="8">
+        <v>6.4420363046065019E-20</v>
+      </c>
+      <c r="E12" s="8">
+        <v>2.003912073288584E-21</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.CONCAT(FIXED(D12,RIGHT(TEXT(E12,"0,00E+00"),2)+1,TRUE),"(",LEFT(E12*10^LEN(E12),5),")")</f>
+        <v>0,0000000000000000000644(0,200)</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D14" s="8">
+        <v>1.0693780265646793E-43</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3.3264940416590494E-45</v>
+      </c>
+      <c r="F14" t="str">
+        <f>_xlfn.CONCAT(FIXED(D14,RIGHT(TEXT(E14,"0,00E+00"),2)+1,TRUE),"(",LEFT(E14*10^LEN(E14),2),")")</f>
+        <v>0,0000000000000000000000000000000000000000001069(3,)</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D16" s="8">
+        <v>6.6729188857635996E-25</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.0757322819952467E-26</v>
+      </c>
+      <c r="F16" t="str">
+        <f>_xlfn.CONCAT(FIXED(D16,RIGHT(TEXT(E16,"0,00E+00"),2)+1,TRUE),"(",LEFT(E16*10^LEN(E16),2),")")</f>
+        <v>0,000000000000000000000000667(2,)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>

--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A93C611-C368-4E31-A3F1-7EA1DB2C60F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096042F-CD7E-49D9-B913-5A523DC08AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
+    <sheet name="Arkusz2" sheetId="4" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>ub(T), C</t>
   </si>
@@ -149,9 +150,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="212" formatCode="0.00000000000000000000000000000000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000000000000000000000000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -168,12 +170,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -216,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,7 +241,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="212" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -343,9 +361,7 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -380,19 +396,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.5726363118268895E-3</c:v>
+                    <c:v>5.4813368041409126E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6059455763919032E-2</c:v>
+                    <c:v>2.9095015853489322E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0649111819543967E-2</c:v>
+                    <c:v>4.5274251003981072E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.5304875633246801E-3</c:v>
+                    <c:v>7.3940287826689492E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.4746283125850226E-3</c:v>
+                    <c:v>6.6410041889994383E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -404,19 +420,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.5726363118268895E-3</c:v>
+                    <c:v>5.4813368041409126E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6059455763919032E-2</c:v>
+                    <c:v>2.9095015853489322E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0649111819543967E-2</c:v>
+                    <c:v>4.5274251003981072E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.5304875633246801E-3</c:v>
+                    <c:v>7.3940287826689492E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.4746283125850226E-3</c:v>
+                    <c:v>6.6410041889994383E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -447,7 +463,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.57735026918962584</c:v>
+                    <c:v>0.28867513459481292</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -459,7 +475,7 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>0.57735026918962584</c:v>
+                    <c:v>0.28867513459481292</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -485,19 +501,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -509,19 +525,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0870729031040001</c:v>
+                  <c:v>1.1415721903951999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56099212784999997</c:v>
+                  <c:v>0.746551393866</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43959928731399989</c:v>
+                  <c:v>0.48030670638809997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35502005248000001</c:v>
+                  <c:v>0.39442866886799999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29420268305999991</c:v>
+                  <c:v>0.29464643088480003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -971,20 +987,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Zadania!$I$11:$I$15</c:f>
@@ -992,19 +994,19 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>3.3766672294445383E-3</c:v>
+                  <c:v>3.3996260411354754E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2451728054518907E-3</c:v>
+                  <c:v>3.3096144299189145E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1933578157432542E-3</c:v>
+                  <c:v>3.224246332419797E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1431714600031434E-3</c:v>
+                  <c:v>3.1730921783277807E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0945381401825778E-3</c:v>
+                  <c:v>3.1235358425737939E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,19 +1018,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.3488674063056184E-2</c:v>
+                  <c:v>0.13240642668335453</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.57804840591083639</c:v>
+                  <c:v>-0.292290817934655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.82189167766872584</c:v>
+                  <c:v>-0.73333040749378597</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0355810052428323</c:v>
+                  <c:v>-0.930316969067848</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2234863510059439</c:v>
+                  <c:v>-1.2219791808386071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1057,7 @@
         <c:axId val="671956720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="3.1000000000000008E-3"/>
+          <c:max val="3.4000000000000011E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2549,15 +2551,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>416925</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>18048</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289925</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>64231</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2580,8 +2582,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1831731"/>
-          <a:ext cx="7163800" cy="3315163"/>
+          <a:off x="484909" y="5033819"/>
+          <a:ext cx="7182561" cy="3343139"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240608</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>155696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F762FE-653A-EE14-449A-179D7D565C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5543176" y="3735294"/>
+          <a:ext cx="5753903" cy="2210108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2856,30 +2902,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="G17" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="C7" zoomScale="101" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="str">
         <f>Pomiary!A1</f>
         <v>ub(T), C</v>
       </c>
       <c r="B1" s="2">
         <f>Pomiary!B1</f>
-        <v>0.57735026918962584</v>
+        <v>0.28867513459481292</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -2888,14 +2936,14 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
         <f>Pomiary!A2</f>
         <v>ub(t), s</v>
       </c>
       <c r="B2" s="2">
         <f>Pomiary!B2</f>
-        <v>5.7735026918962581E-2</v>
+        <v>0.28867513459481292</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2907,7 +2955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
         <f>Pomiary!A3</f>
         <v>LP</v>
@@ -2929,137 +2977,137 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>Pomiary!A4</f>
         <v>1</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B4,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>23,00(57)</v>
+        <v>21,00(28)</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G4,RIGHT(TEXT(F4,"0,00E+00"),2)+1,TRUE),"(",LEFT(F4*10^LEN(F4),2),")")</f>
-        <v>124,40(52)</v>
+        <v>130,64(62)</v>
       </c>
       <c r="D4" s="5">
         <f>STDEVA(Pomiary!C4:E4)</f>
-        <v>0.55677643628300633</v>
+        <v>0.59618229874203066</v>
       </c>
       <c r="E4" s="5">
         <f>D4*$D$1/SQRT(3-1)</f>
-        <v>0.52007822007848392</v>
+        <v>0.55688676561457751</v>
       </c>
       <c r="F4" s="5">
         <f>SQRT(E4^2+$B$2^2)</f>
-        <v>0.52327305332239049</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.62726087320189094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f>Pomiary!A5</f>
         <v>2</v>
       </c>
       <c r="B5" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B5,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>35,00(57)</v>
+        <v>29,00(28)</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G5,RIGHT(TEXT(F5,"0,00E+00"),2)+1,TRUE),"(",LEFT(F5*10^LEN(F5),2),")")</f>
-        <v>64,2(18)</v>
+        <v>85,35(33)</v>
       </c>
       <c r="D5" s="5">
         <f>STDEVA(Pomiary!C5:E5)</f>
-        <v>1.9655363983740781</v>
+        <v>0.17691806012954628</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:E8" si="0">D5*$D$1/SQRT(3-1)</f>
-        <v>1.8359840771822271</v>
+        <v>0.16525704720223439</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F8" si="1">SQRT(E5^2+$B$2^2)</f>
-        <v>1.836891631261901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.33263076373560951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f>Pomiary!A6</f>
         <v>3</v>
       </c>
       <c r="B6" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B6,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>40,00(57)</v>
+        <v>37,00(28)</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G6,RIGHT(TEXT(F6,"0,00E+00"),2)+1,TRUE),"(",LEFT(F6*10^LEN(F6),2),")")</f>
-        <v>50,2(12)</v>
+        <v>54,89(51)</v>
       </c>
       <c r="D6" s="5">
-        <f>STDEVA(Pomiary!C6:E6)</f>
-        <v>1.301281419729543</v>
+        <f>STDEVA(Pomiary!D6:E6)</f>
+        <v>0.45961940777125487</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>1.2155114341982423</v>
+        <v>0.42932499999999896</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>1.2168818266372463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.51735219044508984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f>Pomiary!A7</f>
         <v>4</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B7,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>45,00(57)</v>
+        <v>42,00(28)</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G7,RIGHT(TEXT(F7,"0,00E+00"),2)+1,TRUE),"(",LEFT(F7*10^LEN(F7),2),")")</f>
-        <v>40,53(97)</v>
+        <v>45,05(84)</v>
       </c>
       <c r="D7" s="5">
         <f>STDEVA(Pomiary!C7:E7)</f>
-        <v>1.0408329997330665</v>
+        <v>0.84964698551810258</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>0.97222967536825722</v>
+        <v>0.79364510264349197</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>0.9739424392642515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.84451517587508884</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f>Pomiary!A8</f>
         <v>5</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!B8,RIGHT(TEXT($B$1,"0,00E+00"),2)+1,TRUE),"(",LEFT($B$1*10^LEN($B$1),2),")")</f>
-        <v>50,00(57)</v>
+        <v>47,00(28)</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G8,RIGHT(TEXT(F8,"0,00E+00"),2)+1,TRUE),"(",LEFT(F8*10^LEN(F8),2),")")</f>
-        <v>33,57(62)</v>
+        <v>33,64(75)</v>
       </c>
       <c r="D8" s="5">
         <f>STDEVA(Pomiary!C8:E8)</f>
-        <v>0.66583281184793786</v>
+        <v>0.75048872965110669</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>0.62194647813671633</v>
+        <v>0.70102255999123542</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>0.62462048877698395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>0.75813320923832284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3079,8 +3127,14 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
         <f t="shared" ref="A10:B15" si="2">A3</f>
         <v>LP</v>
@@ -3089,7 +3143,7 @@
         <f t="shared" si="2"/>
         <v>T, C</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="str">
@@ -3118,218 +3172,226 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N10" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(L11,RIGHT(TEXT(L12,"0,00E+00"),2)+1,TRUE),"(",LEFT(L12*10^LEN(L12),2),")")</f>
+        <v>4857,038(11)</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>_xlfn.CONCAT(FIXED(M11,RIGHT(TEXT(M12,"0,00E+00"),2)+1,TRUE),"(",LEFT(M12*10^LEN(M12),2),")")</f>
+        <v>-16,38(36)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>23,00(57)</v>
-      </c>
-      <c r="C11" s="5">
+        <v>21,00(28)</v>
+      </c>
+      <c r="C11" s="9">
         <v>878.8</v>
       </c>
       <c r="D11" s="5">
         <f>Pomiary!G4</f>
-        <v>124.40000000000002</v>
+        <v>130.63666666666668</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>0.52327305332239049</v>
+        <v>0.62726087320189094</v>
       </c>
       <c r="F11" s="5">
         <f>$B$9*($D$9-C11)*D11</f>
-        <v>1.0870729031040001</v>
+        <v>1.1415721903951999</v>
       </c>
       <c r="G11" s="5">
         <f>$B$9*($D$9-C11)*E11</f>
-        <v>4.5726363118268895E-3</v>
+        <v>5.4813368041409126E-3</v>
       </c>
       <c r="I11">
         <f>1/(Pomiary!B4+273.15)</f>
-        <v>3.3766672294445383E-3</v>
+        <v>3.3996260411354754E-3</v>
       </c>
       <c r="J11">
         <f>LN(F11)</f>
-        <v>8.3488674063056184E-2</v>
+        <v>0.13240642668335453</v>
       </c>
       <c r="L11">
         <f t="array" ref="L11:M13">LINEST(J11:J15,I11:I15,TRUE,TRUE)</f>
-        <v>4668.142249714856</v>
+        <v>4857.0380571554242</v>
       </c>
       <c r="M11">
-        <v>-15.702554853545148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-16.375159264529405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>35,00(57)</v>
-      </c>
-      <c r="C12" s="5">
-        <v>875.3</v>
+        <v>29,00(28)</v>
+      </c>
+      <c r="C12" s="9">
+        <v>871.8</v>
       </c>
       <c r="D12" s="5">
         <f>Pomiary!G5</f>
-        <v>64.166666666666671</v>
+        <v>85.350000000000009</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="3"/>
-        <v>1.836891631261901</v>
+        <v>0.33263076373560951</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F15" si="4">$B$9*($D$9-C12)*D12</f>
-        <v>0.56099212784999997</v>
+        <v>0.746551393866</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
-        <v>1.6059455763919032E-2</v>
+        <v>2.9095015853489322E-3</v>
       </c>
       <c r="I12" s="7">
         <f>1/(Pomiary!B5+273.15)</f>
-        <v>3.2451728054518907E-3</v>
+        <v>3.3096144299189145E-3</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J15" si="6">LN(F12)</f>
-        <v>-0.57804840591083639</v>
+        <v>-0.292290817934655</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
       </c>
       <c r="L12">
-        <v>145.21101980352057</v>
+        <v>112.42869052222527</v>
       </c>
       <c r="M12">
-        <v>0.4664247368566703</v>
+        <v>0.36511382795904102</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>40,00(57)</v>
-      </c>
-      <c r="C13" s="5">
+        <v>37,00(28)</v>
+      </c>
+      <c r="C13" s="9">
         <v>868.3</v>
       </c>
       <c r="D13" s="5">
         <f>Pomiary!G6</f>
-        <v>50.233333333333327</v>
+        <v>54.885000000000005</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="3"/>
-        <v>1.2168818266372463</v>
+        <v>0.51735219044508984</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>0.43959928731399989</v>
+        <v>0.48030670638809997</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>1.0649111819543967E-2</v>
+        <v>4.5274251003981072E-3</v>
       </c>
       <c r="I13" s="7">
         <f>1/(Pomiary!B6+273.15)</f>
-        <v>3.1933578157432542E-3</v>
+        <v>3.224246332419797E-3</v>
       </c>
       <c r="J13">
         <f t="shared" si="6"/>
-        <v>-0.82189167766872584</v>
+        <v>-0.73333040749378597</v>
       </c>
       <c r="K13" t="s">
         <v>25</v>
       </c>
       <c r="L13">
-        <v>0.99710550132686027</v>
+        <v>0.99839514792371886</v>
       </c>
       <c r="M13">
-        <v>3.1510409225267606E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+        <v>2.4742997024250479E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>45,00(57)</v>
-      </c>
-      <c r="C14" s="5">
-        <v>862</v>
+        <v>42,00(28)</v>
+      </c>
+      <c r="C14" s="9">
+        <v>864.8</v>
       </c>
       <c r="D14" s="5">
         <f>Pomiary!G7</f>
-        <v>40.533333333333339</v>
+        <v>45.050000000000004</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" si="3"/>
-        <v>0.9739424392642515</v>
+        <v>0.84451517587508884</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>0.35502005248000001</v>
+        <v>0.39442866886799999</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>8.5304875633246801E-3</v>
+        <v>7.3940287826689492E-3</v>
       </c>
       <c r="I14" s="7">
         <f>1/(Pomiary!B7+273.15)</f>
-        <v>3.1431714600031434E-3</v>
+        <v>3.1730921783277807E-3</v>
       </c>
       <c r="J14">
         <f t="shared" si="6"/>
-        <v>-1.0355810052428323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+        <v>-0.930316969067848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>50,00(57)</v>
-      </c>
-      <c r="C15" s="5">
-        <v>857</v>
+        <v>47,00(28)</v>
+      </c>
+      <c r="C15" s="9">
+        <v>861.2</v>
       </c>
       <c r="D15" s="5">
         <f>Pomiary!G8</f>
-        <v>33.566666666666663</v>
+        <v>33.63666666666667</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" si="3"/>
-        <v>0.62462048877698395</v>
+        <v>0.75813320923832284</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>0.29420268305999991</v>
+        <v>0.29464643088480003</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>5.4746283125850226E-3</v>
+        <v>6.6410041889994383E-3</v>
       </c>
       <c r="I15" s="7">
         <f>1/(Pomiary!B8+273.15)</f>
-        <v>3.0945381401825778E-3</v>
+        <v>3.1235358425737939E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="6"/>
-        <v>-1.2234863510059439</v>
+        <v>-1.2219791808386071</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
@@ -3358,15 +3420,15 @@
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I20">
         <f>F18*L11</f>
-        <v>6.4420363046065019E-20</v>
+        <v>6.7027125188744862E-20</v>
       </c>
       <c r="J20">
         <f>F18*L12</f>
-        <v>2.003912073288584E-21</v>
+        <v>1.5515159292067088E-21</v>
       </c>
       <c r="K20" t="str">
-        <f>_xlfn.CONCAT(FIXED(I20,RIGHT(TEXT(J20,"0,00E+00"),2)+1,TRUE),"(",LEFT(J20*10^LEN(J20),2),")")</f>
-        <v>0,0000000000000000000644(0,)</v>
+        <f>_xlfn.CONCAT(FIXED(I20,RIGHT(TEXT(J20,"0,00E+00"),2)+1,TRUE),"(",LEFT(J20*10^(LEN(J20)+2),2),")")</f>
+        <v>0,0000000000000000000670(15)</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
@@ -3383,15 +3445,15 @@
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I22">
         <f>I20*(1.66*10^(-24))</f>
-        <v>1.0693780265646793E-43</v>
+        <v>1.1126502781331647E-43</v>
       </c>
       <c r="J22">
         <f>J20*(1.66*10^(-24))</f>
-        <v>3.3264940416590494E-45</v>
+        <v>2.5755164424831368E-45</v>
       </c>
       <c r="K22" t="str">
-        <f>_xlfn.CONCAT(FIXED(I22,RIGHT(TEXT(J22,"0,00E+00"),2)+1,TRUE),"(",LEFT(J22*10^LEN(J22),2),")")</f>
-        <v>0,0000000000000000000000000000000000000000001069(3,)</v>
+        <f>_xlfn.CONCAT(FIXED(I22,RIGHT(TEXT(J22,"0,00E+00"),2)+1,TRUE),"(",LEFT(J22*10^(LEN(J22)+2),2),")")</f>
+        <v>0,0000000000000000000000000000000000000000001113(2,)</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
@@ -3408,15 +3470,15 @@
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="I24">
         <f>I22*6.24*10^18</f>
-        <v>6.6729188857635996E-25</v>
+        <v>6.9429377355509486E-25</v>
       </c>
       <c r="J24">
         <f>J22*6.24*10^18</f>
-        <v>2.0757322819952467E-26</v>
+        <v>1.6071222601094776E-26</v>
       </c>
       <c r="K24" t="str">
-        <f>_xlfn.CONCAT(FIXED(I24,RIGHT(TEXT(J24,"0,00E+00"),2)+1,TRUE),"(",LEFT(J24*10^LEN(J24),2),")")</f>
-        <v>0,000000000000000000000000667(2,)</v>
+        <f>_xlfn.CONCAT(FIXED(I24,RIGHT(TEXT(J24,"0,00E+00"),2)+1,TRUE),"(",LEFT(J24*10^(LEN(J24)+2),2),")")</f>
+        <v>0,000000000000000000000000694(0,)</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
@@ -3431,11 +3493,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF19E99-E6F6-4E2C-9141-06A8457B8FBC}">
+  <dimension ref="B3:M9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="str">
+        <f>Zadania!A3</f>
+        <v>LP</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>Zadania!B3</f>
+        <v>T, C</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>Zadania!C3</f>
+        <v>tśr, s</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>Zadania!E3</f>
+        <v>ua(tśr), s</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>Zadania!F3</f>
+        <v>u(tśr), s</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>Zadania!B10</f>
+        <v>T, C</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>Zadania!D10</f>
+        <v>tśr, s</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>Zadania!E10</f>
+        <v>u(tśr), s</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>Zadania!F10</f>
+        <v>η, Pa*s</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>Zadania!G10</f>
+        <v>u(η), Pa*s</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <f>Zadania!A4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>Zadania!B4</f>
+        <v>21,00(28)</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>Zadania!C4</f>
+        <v>130,64(62)</v>
+      </c>
+      <c r="E4" s="11">
+        <f>Zadania!E4</f>
+        <v>0.55688676561457751</v>
+      </c>
+      <c r="F4" s="11">
+        <f>Zadania!F4</f>
+        <v>0.62726087320189094</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>Zadania!B11</f>
+        <v>21,00(28)</v>
+      </c>
+      <c r="J4" s="11">
+        <f>Zadania!D11</f>
+        <v>130.63666666666668</v>
+      </c>
+      <c r="K4" s="11">
+        <f>Zadania!E11</f>
+        <v>0.62726087320189094</v>
+      </c>
+      <c r="L4" s="12">
+        <f>Zadania!F11</f>
+        <v>1.1415721903951999</v>
+      </c>
+      <c r="M4" s="12">
+        <f>Zadania!G11</f>
+        <v>5.4813368041409126E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <f>Zadania!A5</f>
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>Zadania!B5</f>
+        <v>29,00(28)</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>Zadania!C5</f>
+        <v>85,35(33)</v>
+      </c>
+      <c r="E5" s="11">
+        <f>Zadania!E5</f>
+        <v>0.16525704720223439</v>
+      </c>
+      <c r="F5" s="11">
+        <f>Zadania!F5</f>
+        <v>0.33263076373560951</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>Zadania!B12</f>
+        <v>29,00(28)</v>
+      </c>
+      <c r="J5" s="11">
+        <f>Zadania!D12</f>
+        <v>85.350000000000009</v>
+      </c>
+      <c r="K5" s="11">
+        <f>Zadania!E12</f>
+        <v>0.33263076373560951</v>
+      </c>
+      <c r="L5" s="12">
+        <f>Zadania!F12</f>
+        <v>0.746551393866</v>
+      </c>
+      <c r="M5" s="12">
+        <f>Zadania!G12</f>
+        <v>2.9095015853489322E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <f>Zadania!A6</f>
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>Zadania!B6</f>
+        <v>37,00(28)</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>Zadania!C6</f>
+        <v>54,89(51)</v>
+      </c>
+      <c r="E6" s="11">
+        <f>Zadania!E6</f>
+        <v>0.42932499999999896</v>
+      </c>
+      <c r="F6" s="11">
+        <f>Zadania!F6</f>
+        <v>0.51735219044508984</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>Zadania!B13</f>
+        <v>37,00(28)</v>
+      </c>
+      <c r="J6" s="11">
+        <f>Zadania!D13</f>
+        <v>54.885000000000005</v>
+      </c>
+      <c r="K6" s="11">
+        <f>Zadania!E13</f>
+        <v>0.51735219044508984</v>
+      </c>
+      <c r="L6" s="12">
+        <f>Zadania!F13</f>
+        <v>0.48030670638809997</v>
+      </c>
+      <c r="M6" s="12">
+        <f>Zadania!G13</f>
+        <v>4.5274251003981072E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <f>Zadania!A7</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Zadania!B7</f>
+        <v>42,00(28)</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>Zadania!C7</f>
+        <v>45,05(84)</v>
+      </c>
+      <c r="E7" s="11">
+        <f>Zadania!E7</f>
+        <v>0.79364510264349197</v>
+      </c>
+      <c r="F7" s="11">
+        <f>Zadania!F7</f>
+        <v>0.84451517587508884</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>Zadania!B14</f>
+        <v>42,00(28)</v>
+      </c>
+      <c r="J7" s="11">
+        <f>Zadania!D14</f>
+        <v>45.050000000000004</v>
+      </c>
+      <c r="K7" s="11">
+        <f>Zadania!E14</f>
+        <v>0.84451517587508884</v>
+      </c>
+      <c r="L7" s="12">
+        <f>Zadania!F14</f>
+        <v>0.39442866886799999</v>
+      </c>
+      <c r="M7" s="12">
+        <f>Zadania!G14</f>
+        <v>7.3940287826689492E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <f>Zadania!A8</f>
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>Zadania!B8</f>
+        <v>47,00(28)</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>Zadania!C8</f>
+        <v>33,64(75)</v>
+      </c>
+      <c r="E8" s="11">
+        <f>Zadania!E8</f>
+        <v>0.70102255999123542</v>
+      </c>
+      <c r="F8" s="11">
+        <f>Zadania!F8</f>
+        <v>0.75813320923832284</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>Zadania!B15</f>
+        <v>47,00(28)</v>
+      </c>
+      <c r="J8" s="11">
+        <f>Zadania!D15</f>
+        <v>33.63666666666667</v>
+      </c>
+      <c r="K8" s="11">
+        <f>Zadania!E15</f>
+        <v>0.75813320923832284</v>
+      </c>
+      <c r="L8" s="12">
+        <f>Zadania!F15</f>
+        <v>0.29464643088480003</v>
+      </c>
+      <c r="M8" s="12">
+        <f>Zadania!G15</f>
+        <v>6.6410041889994383E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E235F9-60CB-49CA-BB40-675AA953A970}">
-  <dimension ref="D9:F16"/>
+  <dimension ref="D5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3445,6 +3812,18 @@
     <col min="6" max="6" width="52" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="8">
+        <v>1244.341551</v>
+      </c>
+      <c r="E5" s="8">
+        <v>432</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>_xlfn.CONCAT(FIXED(D5,RIGHT(TEXT(E5,"0,00E+00"),2)+1,TRUE),"(",LEFT(E5*10^(LEN(E5)),2),")")</f>
+        <v>1244,342(43)</v>
+      </c>
+    </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" s="8">
         <f>10^22</f>
@@ -3484,8 +3863,8 @@
         <v>2.003912073288584E-21</v>
       </c>
       <c r="F12" t="str">
-        <f>_xlfn.CONCAT(FIXED(D12,RIGHT(TEXT(E12,"0,00E+00"),2)+1,TRUE),"(",LEFT(E12*10^LEN(E12),5),")")</f>
-        <v>0,0000000000000000000644(0,200)</v>
+        <f>_xlfn.CONCAT(FIXED(D12,RIGHT(TEXT(E12,"0,00E+00"),2)+1,TRUE),"(",LEFT(E12*10^(LEN(E12)),2),")")</f>
+        <v>0,0000000000000000000644(0,)</v>
       </c>
     </row>
     <row r="13" spans="4:6" x14ac:dyDescent="0.35">
@@ -3539,12 +3918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E8"/>
+    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3559,8 +3938,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <f>1/SQRT(3)</f>
-        <v>0.57735026918962584</v>
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,8 +3947,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>0.1/SQRT(3)</f>
-        <v>5.7735026918962581E-2</v>
+        <f>0.5/SQRT(3)</f>
+        <v>0.28867513459481292</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -3602,20 +3981,20 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>124.5</v>
+        <v>131.21</v>
       </c>
       <c r="D4" s="2">
-        <v>123.8</v>
+        <v>130.02000000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>124.9</v>
+        <v>130.68</v>
       </c>
       <c r="G4" s="1">
         <f>AVERAGE(C4:E4)</f>
-        <v>124.40000000000002</v>
+        <v>130.63666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -3623,41 +4002,41 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
-        <v>66.400000000000006</v>
+        <v>85.54</v>
       </c>
       <c r="D5" s="2">
-        <v>63.4</v>
+        <v>85.19</v>
       </c>
       <c r="E5" s="2">
-        <v>62.7</v>
+        <v>85.32</v>
       </c>
       <c r="G5" s="1">
         <f>AVERAGE(C5:E5)</f>
-        <v>64.166666666666671</v>
+        <v>85.350000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>40</v>
+      <c r="B6" s="1">
+        <v>37</v>
       </c>
       <c r="C6" s="2">
-        <v>51.5</v>
+        <v>55.77</v>
       </c>
       <c r="D6" s="2">
-        <v>48.9</v>
+        <v>54.56</v>
       </c>
       <c r="E6" s="2">
-        <v>50.3</v>
+        <v>55.21</v>
       </c>
       <c r="G6" s="1">
-        <f>AVERAGE(C6:E6)</f>
-        <v>50.233333333333327</v>
+        <f>AVERAGE(D6:E6)</f>
+        <v>54.885000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -3665,20 +4044,20 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
-        <v>41.7</v>
+        <v>46.03</v>
       </c>
       <c r="D7" s="2">
-        <v>40.200000000000003</v>
+        <v>44.6</v>
       </c>
       <c r="E7" s="2">
-        <v>39.700000000000003</v>
+        <v>44.52</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(C7:E7)</f>
-        <v>40.533333333333339</v>
+        <v>45.050000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -3686,20 +4065,50 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2">
-        <v>34.299999999999997</v>
+        <v>34.5</v>
       </c>
       <c r="D8" s="2">
-        <v>33.4</v>
+        <v>33.270000000000003</v>
       </c>
       <c r="E8" s="2">
-        <v>33</v>
+        <v>33.14</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(C8:E8)</f>
-        <v>33.566666666666663</v>
+        <v>33.63666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8096042F-CD7E-49D9-B913-5A523DC08AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE80A8C-7B9A-4227-AB00-BEFB52C8D361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>ub(T), C</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>u(W), eV</t>
+  </si>
+  <si>
+    <t>J/K*X=J/mol</t>
+  </si>
+  <si>
+    <t>X/K=1/mol</t>
+  </si>
+  <si>
+    <t>X = K/mol</t>
+  </si>
+  <si>
+    <t>a, K/mol</t>
+  </si>
+  <si>
+    <t>b, K/mol</t>
   </si>
 </sst>
 </file>
@@ -2904,8 +2919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" zoomScale="101" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2914,6 +2929,7 @@
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7265625" customWidth="1"/>
@@ -3127,11 +3143,11 @@
       <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O9" t="s">
-        <v>22</v>
+      <c r="N9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -3160,6 +3176,9 @@
       <c r="G10" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="H10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I10" t="s">
         <v>18</v>
       </c>
@@ -3209,6 +3228,10 @@
         <f>$B$9*($D$9-C11)*E11</f>
         <v>5.4813368041409126E-3</v>
       </c>
+      <c r="H11" t="str">
+        <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(G11,"0,00E+00"),2)+1,TRUE),"(",LEFT(G11*10^LEN(G11),2),")")</f>
+        <v>1,1416(54)</v>
+      </c>
       <c r="I11">
         <f>1/(Pomiary!B4+273.15)</f>
         <v>3.3996260411354754E-3</v>
@@ -3253,12 +3276,16 @@
         <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
         <v>2.9095015853489322E-3</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" ref="H12:H15" si="6">_xlfn.CONCAT(FIXED(F12,RIGHT(TEXT(G12,"0,00E+00"),2)+1,TRUE),"(",LEFT(G12*10^LEN(G12),2),")")</f>
+        <v>0,7466(29)</v>
+      </c>
       <c r="I12" s="7">
         <f>1/(Pomiary!B5+273.15)</f>
         <v>3.3096144299189145E-3</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J12:J15" si="6">LN(F12)</f>
+        <f t="shared" ref="J12:J15" si="7">LN(F12)</f>
         <v>-0.292290817934655</v>
       </c>
       <c r="K12" t="s">
@@ -3302,12 +3329,16 @@
         <f t="shared" si="5"/>
         <v>4.5274251003981072E-3</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="6"/>
+        <v>0,4803(45)</v>
+      </c>
       <c r="I13" s="7">
         <f>1/(Pomiary!B6+273.15)</f>
         <v>3.224246332419797E-3</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.73333040749378597</v>
       </c>
       <c r="K13" t="s">
@@ -3348,12 +3379,16 @@
         <f t="shared" si="5"/>
         <v>7.3940287826689492E-3</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="6"/>
+        <v>0,3944(73)</v>
+      </c>
       <c r="I14" s="7">
         <f>1/(Pomiary!B7+273.15)</f>
         <v>3.1730921783277807E-3</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.930316969067848</v>
       </c>
     </row>
@@ -3385,12 +3420,16 @@
         <f t="shared" si="5"/>
         <v>6.6410041889994383E-3</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="6"/>
+        <v>0,2946(66)</v>
+      </c>
       <c r="I15" s="7">
         <f>1/(Pomiary!B8+273.15)</f>
         <v>3.1235358425737939E-3</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.2219791808386071</v>
       </c>
     </row>
@@ -3418,6 +3457,9 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
       <c r="I20">
         <f>F18*L11</f>
         <v>6.7027125188744862E-20</v>
@@ -3432,6 +3474,9 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
       <c r="I21" t="s">
         <v>31</v>
       </c>
@@ -3443,6 +3488,9 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>37</v>
+      </c>
       <c r="I22">
         <f>I20*(1.66*10^(-24))</f>
         <v>1.1126502781331647E-43</v>
@@ -3494,10 +3542,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF19E99-E6F6-4E2C-9141-06A8457B8FBC}">
-  <dimension ref="B3:M9"/>
+  <dimension ref="B3:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3511,14 +3559,15 @@
     <col min="7" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="str">
         <f>Zadania!A3</f>
         <v>LP</v>
@@ -3547,23 +3596,27 @@
         <v>T, C</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>Zadania!D10</f>
+        <f>Zadania!C10</f>
+        <v>ρ, kg/m^3</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>Zadania!C3</f>
         <v>tśr, s</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="L3" s="2" t="str">
         <f>Zadania!E10</f>
         <v>u(tśr), s</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f>Zadania!F10</f>
+      <c r="M3" s="2" t="str">
+        <f>Zadania!H10</f>
         <v>η, Pa*s</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="N3" s="2" t="str">
         <f>Zadania!G10</f>
         <v>u(η), Pa*s</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f>Zadania!A4</f>
         <v>1</v>
@@ -3591,24 +3644,28 @@
         <f>Zadania!B11</f>
         <v>21,00(28)</v>
       </c>
-      <c r="J4" s="11">
-        <f>Zadania!D11</f>
-        <v>130.63666666666668</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="2">
+        <f>Zadania!C11</f>
+        <v>878.8</v>
+      </c>
+      <c r="K4" s="11" t="str">
+        <f>Zadania!C4</f>
+        <v>130,64(62)</v>
+      </c>
+      <c r="L4" s="11">
         <f>Zadania!E11</f>
         <v>0.62726087320189094</v>
       </c>
-      <c r="L4" s="12">
-        <f>Zadania!F11</f>
-        <v>1.1415721903951999</v>
-      </c>
-      <c r="M4" s="12">
+      <c r="M4" s="12" t="str">
+        <f>Zadania!H11</f>
+        <v>1,1416(54)</v>
+      </c>
+      <c r="N4" s="12">
         <f>Zadania!G11</f>
         <v>5.4813368041409126E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f>Zadania!A5</f>
         <v>2</v>
@@ -3636,24 +3693,28 @@
         <f>Zadania!B12</f>
         <v>29,00(28)</v>
       </c>
-      <c r="J5" s="11">
-        <f>Zadania!D12</f>
-        <v>85.350000000000009</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="2">
+        <f>Zadania!C12</f>
+        <v>871.8</v>
+      </c>
+      <c r="K5" s="11" t="str">
+        <f>Zadania!C5</f>
+        <v>85,35(33)</v>
+      </c>
+      <c r="L5" s="11">
         <f>Zadania!E12</f>
         <v>0.33263076373560951</v>
       </c>
-      <c r="L5" s="12">
-        <f>Zadania!F12</f>
-        <v>0.746551393866</v>
-      </c>
-      <c r="M5" s="12">
+      <c r="M5" s="12" t="str">
+        <f>Zadania!H12</f>
+        <v>0,7466(29)</v>
+      </c>
+      <c r="N5" s="12">
         <f>Zadania!G12</f>
         <v>2.9095015853489322E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <f>Zadania!A6</f>
         <v>3</v>
@@ -3681,24 +3742,28 @@
         <f>Zadania!B13</f>
         <v>37,00(28)</v>
       </c>
-      <c r="J6" s="11">
-        <f>Zadania!D13</f>
-        <v>54.885000000000005</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="J6" s="2">
+        <f>Zadania!C13</f>
+        <v>868.3</v>
+      </c>
+      <c r="K6" s="11" t="str">
+        <f>Zadania!C6</f>
+        <v>54,89(51)</v>
+      </c>
+      <c r="L6" s="11">
         <f>Zadania!E13</f>
         <v>0.51735219044508984</v>
       </c>
-      <c r="L6" s="12">
-        <f>Zadania!F13</f>
-        <v>0.48030670638809997</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="M6" s="12" t="str">
+        <f>Zadania!H13</f>
+        <v>0,4803(45)</v>
+      </c>
+      <c r="N6" s="12">
         <f>Zadania!G13</f>
         <v>4.5274251003981072E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <f>Zadania!A7</f>
         <v>4</v>
@@ -3726,24 +3791,28 @@
         <f>Zadania!B14</f>
         <v>42,00(28)</v>
       </c>
-      <c r="J7" s="11">
-        <f>Zadania!D14</f>
-        <v>45.050000000000004</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="2">
+        <f>Zadania!C14</f>
+        <v>864.8</v>
+      </c>
+      <c r="K7" s="11" t="str">
+        <f>Zadania!C7</f>
+        <v>45,05(84)</v>
+      </c>
+      <c r="L7" s="11">
         <f>Zadania!E14</f>
         <v>0.84451517587508884</v>
       </c>
-      <c r="L7" s="12">
-        <f>Zadania!F14</f>
-        <v>0.39442866886799999</v>
-      </c>
-      <c r="M7" s="12">
+      <c r="M7" s="12" t="str">
+        <f>Zadania!H14</f>
+        <v>0,3944(73)</v>
+      </c>
+      <c r="N7" s="12">
         <f>Zadania!G14</f>
         <v>7.3940287826689492E-3</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f>Zadania!A8</f>
         <v>5</v>
@@ -3771,24 +3840,28 @@
         <f>Zadania!B15</f>
         <v>47,00(28)</v>
       </c>
-      <c r="J8" s="11">
-        <f>Zadania!D15</f>
-        <v>33.63666666666667</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="J8" s="2">
+        <f>Zadania!C15</f>
+        <v>861.2</v>
+      </c>
+      <c r="K8" s="11" t="str">
+        <f>Zadania!C8</f>
+        <v>33,64(75)</v>
+      </c>
+      <c r="L8" s="11">
         <f>Zadania!E15</f>
         <v>0.75813320923832284</v>
       </c>
-      <c r="L8" s="12">
-        <f>Zadania!F15</f>
-        <v>0.29464643088480003</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="M8" s="12" t="str">
+        <f>Zadania!H15</f>
+        <v>0,2946(66)</v>
+      </c>
+      <c r="N8" s="12">
         <f>Zadania!G15</f>
         <v>6.6410041889994383E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
@@ -3801,7 +3874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E235F9-60CB-49CA-BB40-675AA953A970}">
   <dimension ref="D5:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="91" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="91" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/8/8ka.xlsx
+++ b/8/8ka.xlsx
@@ -5,18 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mskrz\Desktop\Github\Fizyka-laby\8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pulpit\Github\Fizyka-laby\8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE80A8C-7B9A-4227-AB00-BEFB52C8D361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EEB38D-B36B-40E2-8267-424DF6E97636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1875" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadania" sheetId="2" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="4" r:id="rId2"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId3"/>
-    <sheet name="Pomiary" sheetId="1" r:id="rId4"/>
+    <sheet name="Pomiary" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>ub(T), C</t>
   </si>
@@ -95,9 +94,6 @@
     <t>4. K</t>
   </si>
   <si>
-    <t>1/T, 1/C</t>
-  </si>
-  <si>
     <t>ln(η), ln(Pa*s)</t>
   </si>
   <si>
@@ -128,12 +124,6 @@
     <t>k, J/K</t>
   </si>
   <si>
-    <t>W, J/mol</t>
-  </si>
-  <si>
-    <t>u(W), J/mol</t>
-  </si>
-  <si>
     <t>W, J</t>
   </si>
   <si>
@@ -155,22 +145,43 @@
     <t>X = K/mol</t>
   </si>
   <si>
-    <t>a, K/mol</t>
+    <r>
+      <t>ρ, kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
-    <t>b, K/mol</t>
+    <t xml:space="preserve">T, ◦C </t>
+  </si>
+  <si>
+    <t>1/T, 1/K</t>
+  </si>
+  <si>
+    <t>a, K</t>
+  </si>
+  <si>
+    <t>b, K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000000000000000000000000000000000000000000000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="175" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +194,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -256,7 +273,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +283,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -352,7 +375,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -376,7 +399,9 @@
             <c:symbol val="circle"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -411,19 +436,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.4813368041409126E-3</c:v>
+                    <c:v>1.1203559073080679E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9095015853489322E-3</c:v>
+                    <c:v>1.0202042827005597E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5274251003981072E-3</c:v>
+                    <c:v>1.0782987478782639E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3940287826689492E-3</c:v>
+                    <c:v>1.2270061410172145E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6410041889994383E-3</c:v>
+                    <c:v>1.1835273327265961E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -435,19 +460,19 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>5.4813368041409126E-3</c:v>
+                    <c:v>1.1203559073080679E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.9095015853489322E-3</c:v>
+                    <c:v>1.0202042827005597E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>4.5274251003981072E-3</c:v>
+                    <c:v>1.0782987478782639E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.3940287826689492E-3</c:v>
+                    <c:v>1.2270061410172145E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.6410041889994383E-3</c:v>
+                    <c:v>1.1835273327265961E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -540,19 +565,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1415721903951999</c:v>
+                  <c:v>1.1416737912711115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.746551393866</c:v>
+                  <c:v>0.74648061806130006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48030670638809997</c:v>
+                  <c:v>0.48040385721321865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.39442866886799999</c:v>
+                  <c:v>0.39451053793052143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29464643088480003</c:v>
+                  <c:v>0.29470510422585139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +680,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -693,7 +718,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569523752"/>
@@ -779,7 +804,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -817,7 +842,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="569522312"/>
@@ -865,7 +890,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -913,7 +938,7 @@
               <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
+              <a:t>Wykres zależności logarytmu naturalnego współczynnika lepkości od odwrotności tempe-</a:t>
             </a:r>
             <a:br>
               <a:rPr lang="pl-PL" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -953,7 +978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pl-PL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1033,19 +1058,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.13240642668335453</c:v>
+                  <c:v>0.1324954235560476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.292290817934655</c:v>
+                  <c:v>-0.29238562608905166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.73333040749378597</c:v>
+                  <c:v>-0.73312815963864486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.930316969067848</c:v>
+                  <c:v>-0.93010942693504539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.2219791808386071</c:v>
+                  <c:v>-1.2217800693143308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1166,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1179,17 +1204,19 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671949880"/>
-        <c:crossesAt val="-1.2"/>
+        <c:crossesAt val="-1.3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="671949880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-1.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1275,7 +1302,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pl-PL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1313,11 +1340,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671956720"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="3.1000000000000008E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1361,7 +1388,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pl-PL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2489,15 +2516,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>234197</xdr:colOff>
+      <xdr:colOff>263963</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>90851</xdr:rowOff>
+      <xdr:rowOff>1554</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>240766</xdr:colOff>
+      <xdr:colOff>270532</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>158512</xdr:rowOff>
+      <xdr:rowOff>69215</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2556,99 +2583,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>46183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289925</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>64231</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D46135-5B29-06CC-EBDD-CD6A70BE81FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="484909" y="5033819"/>
-          <a:ext cx="7182561" cy="3343139"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>240608</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>155696</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F762FE-653A-EE14-449A-179D7D565C7D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5543176" y="3735294"/>
-          <a:ext cx="5753903" cy="2210108"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2917,26 +2851,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBB5C20-0EAF-4D24-AF85-7359C289AF95}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="83" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="D4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.26953125" customWidth="1"/>
-    <col min="10" max="10" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>Pomiary!A1</f>
         <v>ub(T), C</v>
@@ -2952,14 +2887,14 @@
         <v>1.321</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="str">
         <f>Pomiary!A2</f>
         <v>ub(t), s</v>
       </c>
       <c r="B2" s="2">
         <f>Pomiary!B2</f>
-        <v>0.28867513459481292</v>
+        <v>1.1547005383792517</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -2970,15 +2905,21 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="Q2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="str">
         <f>Pomiary!A3</f>
         <v>LP</v>
       </c>
       <c r="B3" s="2" t="str">
         <f>Pomiary!B3</f>
-        <v>T, C</v>
+        <v xml:space="preserve">T, ◦C </v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -2992,8 +2933,21 @@
       <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="Q3" s="5">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5">
+        <v>878.8</v>
+      </c>
+      <c r="T3">
+        <f t="array" ref="T3:U5">LINEST(R3:R9,Q3:Q9,TRUE,TRUE)</f>
+        <v>-0.70785714285714063</v>
+      </c>
+      <c r="U3">
+        <v>893.01785714285711</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>Pomiary!A4</f>
         <v>1</v>
@@ -3004,7 +2958,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G4,RIGHT(TEXT(F4,"0,00E+00"),2)+1,TRUE),"(",LEFT(F4*10^LEN(F4),2),")")</f>
-        <v>130,64(62)</v>
+        <v>130,6(12)</v>
       </c>
       <c r="D4" s="5">
         <f>STDEVA(Pomiary!C4:E4)</f>
@@ -3016,10 +2970,22 @@
       </c>
       <c r="F4" s="5">
         <f>SQRT(E4^2+$B$2^2)</f>
-        <v>0.62726087320189094</v>
+        <v>1.2819735578591311</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>25</v>
+      </c>
+      <c r="R4" s="5">
+        <v>875.3</v>
+      </c>
+      <c r="T4">
+        <v>3.1134992453859776E-3</v>
+      </c>
+      <c r="U4">
+        <v>0.11333308323300942</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>Pomiary!A5</f>
         <v>2</v>
@@ -3030,7 +2996,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G5,RIGHT(TEXT(F5,"0,00E+00"),2)+1,TRUE),"(",LEFT(F5*10^LEN(F5),2),")")</f>
-        <v>85,35(33)</v>
+        <v>85,4(11)</v>
       </c>
       <c r="D5" s="5">
         <f>STDEVA(Pomiary!C5:E5)</f>
@@ -3042,10 +3008,22 @@
       </c>
       <c r="F5" s="5">
         <f t="shared" ref="F5:F8" si="1">SQRT(E5^2+$B$2^2)</f>
-        <v>0.33263076373560951</v>
+        <v>1.1664661268049472</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>30</v>
+      </c>
+      <c r="R5" s="5">
+        <v>871.8</v>
+      </c>
+      <c r="T5">
+        <v>0.99990327599126827</v>
+      </c>
+      <c r="U5">
+        <v>8.2375447104785643E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>Pomiary!A6</f>
         <v>3</v>
@@ -3056,7 +3034,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G6,RIGHT(TEXT(F6,"0,00E+00"),2)+1,TRUE),"(",LEFT(F6*10^LEN(F6),2),")")</f>
-        <v>54,89(51)</v>
+        <v>54,9(12)</v>
       </c>
       <c r="D6" s="5">
         <f>STDEVA(Pomiary!D6:E6)</f>
@@ -3068,10 +3046,16 @@
       </c>
       <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>0.51735219044508984</v>
+        <v>1.2319307159732371</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>35</v>
+      </c>
+      <c r="R6" s="5">
+        <v>868.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>Pomiary!A7</f>
         <v>4</v>
@@ -3082,7 +3066,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G7,RIGHT(TEXT(F7,"0,00E+00"),2)+1,TRUE),"(",LEFT(F7*10^LEN(F7),2),")")</f>
-        <v>45,05(84)</v>
+        <v>45,1(14)</v>
       </c>
       <c r="D7" s="5">
         <f>STDEVA(Pomiary!C7:E7)</f>
@@ -3094,10 +3078,16 @@
       </c>
       <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>0.84451517587508884</v>
+        <v>1.4011444901520087</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>40</v>
+      </c>
+      <c r="R7" s="5">
+        <v>864.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>Pomiary!A8</f>
         <v>5</v>
@@ -3108,7 +3098,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(Pomiary!G8,RIGHT(TEXT(F8,"0,00E+00"),2)+1,TRUE),"(",LEFT(F8*10^LEN(F8),2),")")</f>
-        <v>33,64(75)</v>
+        <v>33,6(13)</v>
       </c>
       <c r="D8" s="5">
         <f>STDEVA(Pomiary!C8:E8)</f>
@@ -3120,10 +3110,16 @@
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>0.75813320923832284</v>
+        <v>1.35083898483498</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>45</v>
+      </c>
+      <c r="R8" s="5">
+        <v>861.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3138,10 +3134,10 @@
         <v>8150</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>38</v>
@@ -3149,17 +3145,23 @@
       <c r="O9" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="Q9" s="5">
+        <v>50</v>
+      </c>
+      <c r="R9" s="5">
+        <v>857.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="str">
         <f t="shared" ref="A10:B15" si="2">A3</f>
         <v>LP</v>
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>T, C</v>
-      </c>
-      <c r="C10" s="9" t="s">
+        <v xml:space="preserve">T, ◦C </v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="5" t="str">
@@ -3180,27 +3182,27 @@
         <v>13</v>
       </c>
       <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
       <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
       </c>
       <c r="N10" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(L11,RIGHT(TEXT(L12,"0,00E+00"),2)+1,TRUE),"(",LEFT(L12*10^LEN(L12),2),")")</f>
-        <v>4857,038(11)</v>
+        <v>4856,289(11)</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>_xlfn.CONCAT(FIXED(M11,RIGHT(TEXT(M12,"0,00E+00"),2)+1,TRUE),"(",LEFT(M12*10^LEN(M12),2),")")</f>
-        <v>-16,38(36)</v>
+        <v>-16,37(36)</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -3209,8 +3211,9 @@
         <f t="shared" si="2"/>
         <v>21,00(28)</v>
       </c>
-      <c r="C11" s="9">
-        <v>878.8</v>
+      <c r="C11" s="8">
+        <f>$T$3*Pomiary!B4+$U$3</f>
+        <v>878.1528571428571</v>
       </c>
       <c r="D11" s="5">
         <f>Pomiary!G4</f>
@@ -3218,19 +3221,19 @@
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>0.62726087320189094</v>
+        <v>1.2819735578591311</v>
       </c>
       <c r="F11" s="5">
         <f>$B$9*($D$9-C11)*D11</f>
-        <v>1.1415721903951999</v>
+        <v>1.1416737912711115</v>
       </c>
       <c r="G11" s="5">
         <f>$B$9*($D$9-C11)*E11</f>
-        <v>5.4813368041409126E-3</v>
+        <v>1.1203559073080679E-2</v>
       </c>
       <c r="H11" t="str">
         <f>_xlfn.CONCAT(FIXED(F11,RIGHT(TEXT(G11,"0,00E+00"),2)+1,TRUE),"(",LEFT(G11*10^LEN(G11),2),")")</f>
-        <v>1,1416(54)</v>
+        <v>1,142(11)</v>
       </c>
       <c r="I11">
         <f>1/(Pomiary!B4+273.15)</f>
@@ -3238,17 +3241,17 @@
       </c>
       <c r="J11">
         <f>LN(F11)</f>
-        <v>0.13240642668335453</v>
+        <v>0.1324954235560476</v>
       </c>
       <c r="L11">
         <f t="array" ref="L11:M13">LINEST(J11:J15,I11:I15,TRUE,TRUE)</f>
-        <v>4857.0380571554242</v>
+        <v>4856.2888337818931</v>
       </c>
       <c r="M11">
-        <v>-16.375159264529405</v>
+        <v>-16.372606650207</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -3257,8 +3260,9 @@
         <f t="shared" si="2"/>
         <v>29,00(28)</v>
       </c>
-      <c r="C12" s="9">
-        <v>871.8</v>
+      <c r="C12" s="8">
+        <f>$T$3*Pomiary!B5+$U$3</f>
+        <v>872.49</v>
       </c>
       <c r="D12" s="5">
         <f>Pomiary!G5</f>
@@ -3266,19 +3270,19 @@
       </c>
       <c r="E12" s="5">
         <f t="shared" si="3"/>
-        <v>0.33263076373560951</v>
+        <v>1.1664661268049472</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ref="F12:F15" si="4">$B$9*($D$9-C12)*D12</f>
-        <v>0.746551393866</v>
+        <v>0.74648061806130006</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" ref="G12:G15" si="5">$B$9*($D$9-C12)*E12</f>
-        <v>2.9095015853489322E-3</v>
+        <v>1.0202042827005597E-2</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" ref="H12:H15" si="6">_xlfn.CONCAT(FIXED(F12,RIGHT(TEXT(G12,"0,00E+00"),2)+1,TRUE),"(",LEFT(G12*10^LEN(G12),2),")")</f>
-        <v>0,7466(29)</v>
+        <v>0,746(10)</v>
       </c>
       <c r="I12" s="7">
         <f>1/(Pomiary!B5+273.15)</f>
@@ -3286,22 +3290,22 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J15" si="7">LN(F12)</f>
-        <v>-0.292290817934655</v>
+        <v>-0.29238562608905166</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12">
-        <v>112.42869052222527</v>
+        <v>112.33108560304034</v>
       </c>
       <c r="M12">
-        <v>0.36511382795904102</v>
+        <v>0.36479685454677663</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3310,8 +3314,9 @@
         <f t="shared" si="2"/>
         <v>37,00(28)</v>
       </c>
-      <c r="C13" s="9">
-        <v>868.3</v>
+      <c r="C13" s="8">
+        <f>$T$3*Pomiary!B6+$U$3</f>
+        <v>866.82714285714292</v>
       </c>
       <c r="D13" s="5">
         <f>Pomiary!G6</f>
@@ -3319,19 +3324,19 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="3"/>
-        <v>0.51735219044508984</v>
+        <v>1.2319307159732371</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="4"/>
-        <v>0.48030670638809997</v>
+        <v>0.48040385721321865</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="5"/>
-        <v>4.5274251003981072E-3</v>
+        <v>1.0782987478782639E-2</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="6"/>
-        <v>0,4803(45)</v>
+        <v>0,480(10)</v>
       </c>
       <c r="I13" s="7">
         <f>1/(Pomiary!B6+273.15)</f>
@@ -3339,19 +3344,19 @@
       </c>
       <c r="J13">
         <f t="shared" si="7"/>
-        <v>-0.73333040749378597</v>
+        <v>-0.73312815963864486</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13">
-        <v>0.99839514792371886</v>
+        <v>0.99839743517744084</v>
       </c>
       <c r="M13">
-        <v>2.4742997024250479E-2</v>
+        <v>2.4721516402055846E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3360,8 +3365,9 @@
         <f t="shared" si="2"/>
         <v>42,00(28)</v>
       </c>
-      <c r="C14" s="9">
-        <v>864.8</v>
+      <c r="C14" s="8">
+        <f>$T$3*Pomiary!B7+$U$3</f>
+        <v>863.28785714285721</v>
       </c>
       <c r="D14" s="5">
         <f>Pomiary!G7</f>
@@ -3369,19 +3375,19 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" si="3"/>
-        <v>0.84451517587508884</v>
+        <v>1.4011444901520087</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="4"/>
-        <v>0.39442866886799999</v>
+        <v>0.39451053793052143</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>7.3940287826689492E-3</v>
+        <v>1.2270061410172145E-2</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="6"/>
-        <v>0,3944(73)</v>
+        <v>0,395(12)</v>
       </c>
       <c r="I14" s="7">
         <f>1/(Pomiary!B7+273.15)</f>
@@ -3389,10 +3395,10 @@
       </c>
       <c r="J14">
         <f t="shared" si="7"/>
-        <v>-0.930316969067848</v>
+        <v>-0.93010942693504539</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3401,8 +3407,9 @@
         <f t="shared" si="2"/>
         <v>47,00(28)</v>
       </c>
-      <c r="C15" s="9">
-        <v>861.2</v>
+      <c r="C15" s="8">
+        <f>$T$3*Pomiary!B8+$U$3</f>
+        <v>859.74857142857149</v>
       </c>
       <c r="D15" s="5">
         <f>Pomiary!G8</f>
@@ -3410,19 +3417,19 @@
       </c>
       <c r="E15" s="5">
         <f t="shared" si="3"/>
-        <v>0.75813320923832284</v>
+        <v>1.35083898483498</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="4"/>
-        <v>0.29464643088480003</v>
+        <v>0.29470510422585139</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>6.6410041889994383E-3</v>
+        <v>1.1835273327265961E-2</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="6"/>
-        <v>0,2946(66)</v>
+        <v>0,295(11)</v>
       </c>
       <c r="I15" s="7">
         <f>1/(Pomiary!B8+273.15)</f>
@@ -3430,151 +3437,130 @@
       </c>
       <c r="J15">
         <f t="shared" si="7"/>
-        <v>-1.2219791808386071</v>
+        <v>-1.2217800693143308</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18">
         <f>1.38*10^(-23)</f>
         <v>1.3800000000000001E-23</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I19" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>29</v>
+      <c r="K19" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20">
+        <v>32</v>
+      </c>
+      <c r="I20" s="5">
         <f>F18*L11</f>
-        <v>6.7027125188744862E-20</v>
-      </c>
-      <c r="J20">
+        <v>6.701678590619013E-20</v>
+      </c>
+      <c r="J20" s="5">
         <f>F18*L12</f>
-        <v>1.5515159292067088E-21</v>
-      </c>
-      <c r="K20" t="str">
+        <v>1.5501689813219567E-21</v>
+      </c>
+      <c r="K20" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(I20,RIGHT(TEXT(J20,"0,00E+00"),2)+1,TRUE),"(",LEFT(J20*10^(LEN(J20)+2),2),")")</f>
         <v>0,0000000000000000000670(15)</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J21" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" t="s">
-        <v>31</v>
+      <c r="K21" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22">
-        <f>I20*(1.66*10^(-24))</f>
-        <v>1.1126502781331647E-43</v>
-      </c>
-      <c r="J22">
-        <f>J20*(1.66*10^(-24))</f>
-        <v>2.5755164424831368E-45</v>
-      </c>
-      <c r="K22" t="str">
+        <v>34</v>
+      </c>
+      <c r="I22" s="14">
+        <f>I20*6.24*10^18</f>
+        <v>0.41818474405462641</v>
+      </c>
+      <c r="J22" s="14">
+        <f>J20*6.24*10^18</f>
+        <v>9.6730544434490105E-3</v>
+      </c>
+      <c r="K22" s="5" t="str">
         <f>_xlfn.CONCAT(FIXED(I22,RIGHT(TEXT(J22,"0,00E+00"),2)+1,TRUE),"(",LEFT(J22*10^(LEN(J22)+2),2),")")</f>
-        <v>0,0000000000000000000000000000000000000000001113(2,)</v>
+        <v>0,4182(96)</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="I24">
-        <f>I22*6.24*10^18</f>
-        <v>6.9429377355509486E-25</v>
-      </c>
-      <c r="J24">
-        <f>J22*6.24*10^18</f>
-        <v>1.6071222601094776E-26</v>
-      </c>
-      <c r="K24" t="str">
-        <f>_xlfn.CONCAT(FIXED(I24,RIGHT(TEXT(J24,"0,00E+00"),2)+1,TRUE),"(",LEFT(J24*10^(LEN(J24)+2),2),")")</f>
-        <v>0,000000000000000000000000694(0,)</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF19E99-E6F6-4E2C-9141-06A8457B8FBC}">
-  <dimension ref="B3:N9"/>
+  <dimension ref="B3:R9"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="1"/>
-    <col min="8" max="8" width="2.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="3" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1"/>
+    <col min="16" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="str">
         <f>Zadania!A3</f>
         <v>LP</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>Zadania!B3</f>
-        <v>T, C</v>
+        <v xml:space="preserve">T, ◦C </v>
       </c>
       <c r="D3" s="2" t="str">
         <f>Zadania!C3</f>
@@ -3593,7 +3579,7 @@
       </c>
       <c r="I3" s="2" t="str">
         <f>Zadania!B10</f>
-        <v>T, C</v>
+        <v xml:space="preserve">T, ◦C </v>
       </c>
       <c r="J3" s="2" t="str">
         <f>Zadania!C10</f>
@@ -3615,8 +3601,20 @@
         <f>Zadania!G10</f>
         <v>u(η), Pa*s</v>
       </c>
+      <c r="P3" s="2" t="str">
+        <f>Zadania!I19</f>
+        <v>W, J</v>
+      </c>
+      <c r="Q3" s="2" t="str">
+        <f>Zadania!J19</f>
+        <v>u(W), J</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f>Zadania!K19</f>
+        <v>W, J</v>
+      </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <f>Zadania!A4</f>
         <v>1</v>
@@ -3627,15 +3625,15 @@
       </c>
       <c r="D4" s="2" t="str">
         <f>Zadania!C4</f>
-        <v>130,64(62)</v>
-      </c>
-      <c r="E4" s="11">
+        <v>130,6(12)</v>
+      </c>
+      <c r="E4" s="10">
         <f>Zadania!E4</f>
         <v>0.55688676561457751</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <f>Zadania!F4</f>
-        <v>0.62726087320189094</v>
+        <v>1.2819735578591311</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -3644,28 +3642,40 @@
         <f>Zadania!B11</f>
         <v>21,00(28)</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="10">
         <f>Zadania!C11</f>
-        <v>878.8</v>
-      </c>
-      <c r="K4" s="11" t="str">
+        <v>878.1528571428571</v>
+      </c>
+      <c r="K4" s="10" t="str">
         <f>Zadania!C4</f>
-        <v>130,64(62)</v>
-      </c>
-      <c r="L4" s="11">
+        <v>130,6(12)</v>
+      </c>
+      <c r="L4" s="10">
         <f>Zadania!E11</f>
-        <v>0.62726087320189094</v>
-      </c>
-      <c r="M4" s="12" t="str">
+        <v>1.2819735578591311</v>
+      </c>
+      <c r="M4" s="11" t="str">
         <f>Zadania!H11</f>
-        <v>1,1416(54)</v>
+        <v>1,142(11)</v>
       </c>
       <c r="N4" s="12">
         <f>Zadania!G11</f>
-        <v>5.4813368041409126E-3</v>
+        <v>1.1203559073080679E-2</v>
+      </c>
+      <c r="P4" s="2">
+        <f>Zadania!I20</f>
+        <v>6.701678590619013E-20</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>Zadania!J20</f>
+        <v>1.5501689813219567E-21</v>
+      </c>
+      <c r="R4" s="2" t="str">
+        <f>Zadania!K20</f>
+        <v>0,0000000000000000000670(15)</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <f>Zadania!A5</f>
         <v>2</v>
@@ -3676,15 +3686,15 @@
       </c>
       <c r="D5" s="2" t="str">
         <f>Zadania!C5</f>
-        <v>85,35(33)</v>
-      </c>
-      <c r="E5" s="11">
+        <v>85,4(11)</v>
+      </c>
+      <c r="E5" s="10">
         <f>Zadania!E5</f>
         <v>0.16525704720223439</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="13">
         <f>Zadania!F5</f>
-        <v>0.33263076373560951</v>
+        <v>1.1664661268049472</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -3693,28 +3703,40 @@
         <f>Zadania!B12</f>
         <v>29,00(28)</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="10">
         <f>Zadania!C12</f>
-        <v>871.8</v>
-      </c>
-      <c r="K5" s="11" t="str">
+        <v>872.49</v>
+      </c>
+      <c r="K5" s="10" t="str">
         <f>Zadania!C5</f>
-        <v>85,35(33)</v>
-      </c>
-      <c r="L5" s="11">
+        <v>85,4(11)</v>
+      </c>
+      <c r="L5" s="10">
         <f>Zadania!E12</f>
-        <v>0.33263076373560951</v>
-      </c>
-      <c r="M5" s="12" t="str">
+        <v>1.1664661268049472</v>
+      </c>
+      <c r="M5" s="11" t="str">
         <f>Zadania!H12</f>
-        <v>0,7466(29)</v>
+        <v>0,746(10)</v>
       </c>
       <c r="N5" s="12">
         <f>Zadania!G12</f>
-        <v>2.9095015853489322E-3</v>
+        <v>1.0202042827005597E-2</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>Zadania!I21</f>
+        <v>W, eV</v>
+      </c>
+      <c r="Q5" s="2" t="str">
+        <f>Zadania!J21</f>
+        <v>u(W), eV</v>
+      </c>
+      <c r="R5" s="2" t="str">
+        <f>Zadania!K21</f>
+        <v>W, eV</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f>Zadania!A6</f>
         <v>3</v>
@@ -3725,15 +3747,15 @@
       </c>
       <c r="D6" s="2" t="str">
         <f>Zadania!C6</f>
-        <v>54,89(51)</v>
-      </c>
-      <c r="E6" s="11">
+        <v>54,9(12)</v>
+      </c>
+      <c r="E6" s="10">
         <f>Zadania!E6</f>
         <v>0.42932499999999896</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <f>Zadania!F6</f>
-        <v>0.51735219044508984</v>
+        <v>1.2319307159732371</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -3742,28 +3764,40 @@
         <f>Zadania!B13</f>
         <v>37,00(28)</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="10">
         <f>Zadania!C13</f>
-        <v>868.3</v>
-      </c>
-      <c r="K6" s="11" t="str">
+        <v>866.82714285714292</v>
+      </c>
+      <c r="K6" s="10" t="str">
         <f>Zadania!C6</f>
-        <v>54,89(51)</v>
-      </c>
-      <c r="L6" s="11">
+        <v>54,9(12)</v>
+      </c>
+      <c r="L6" s="10">
         <f>Zadania!E13</f>
-        <v>0.51735219044508984</v>
-      </c>
-      <c r="M6" s="12" t="str">
+        <v>1.2319307159732371</v>
+      </c>
+      <c r="M6" s="11" t="str">
         <f>Zadania!H13</f>
-        <v>0,4803(45)</v>
+        <v>0,480(10)</v>
       </c>
       <c r="N6" s="12">
         <f>Zadania!G13</f>
-        <v>4.5274251003981072E-3</v>
+        <v>1.0782987478782639E-2</v>
+      </c>
+      <c r="P6" s="11">
+        <f>Zadania!I22</f>
+        <v>0.41818474405462641</v>
+      </c>
+      <c r="Q6" s="11">
+        <f>Zadania!J22</f>
+        <v>9.6730544434490105E-3</v>
+      </c>
+      <c r="R6" s="2" t="str">
+        <f>Zadania!K22</f>
+        <v>0,4182(96)</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f>Zadania!A7</f>
         <v>4</v>
@@ -3774,15 +3808,15 @@
       </c>
       <c r="D7" s="2" t="str">
         <f>Zadania!C7</f>
-        <v>45,05(84)</v>
-      </c>
-      <c r="E7" s="11">
+        <v>45,1(14)</v>
+      </c>
+      <c r="E7" s="10">
         <f>Zadania!E7</f>
         <v>0.79364510264349197</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <f>Zadania!F7</f>
-        <v>0.84451517587508884</v>
+        <v>1.4011444901520087</v>
       </c>
       <c r="H7" s="2">
         <v>4</v>
@@ -3791,28 +3825,28 @@
         <f>Zadania!B14</f>
         <v>42,00(28)</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="10">
         <f>Zadania!C14</f>
-        <v>864.8</v>
-      </c>
-      <c r="K7" s="11" t="str">
+        <v>863.28785714285721</v>
+      </c>
+      <c r="K7" s="10" t="str">
         <f>Zadania!C7</f>
-        <v>45,05(84)</v>
-      </c>
-      <c r="L7" s="11">
+        <v>45,1(14)</v>
+      </c>
+      <c r="L7" s="10">
         <f>Zadania!E14</f>
-        <v>0.84451517587508884</v>
-      </c>
-      <c r="M7" s="12" t="str">
+        <v>1.4011444901520087</v>
+      </c>
+      <c r="M7" s="11" t="str">
         <f>Zadania!H14</f>
-        <v>0,3944(73)</v>
+        <v>0,395(12)</v>
       </c>
       <c r="N7" s="12">
         <f>Zadania!G14</f>
-        <v>7.3940287826689492E-3</v>
+        <v>1.2270061410172145E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f>Zadania!A8</f>
         <v>5</v>
@@ -3823,15 +3857,15 @@
       </c>
       <c r="D8" s="2" t="str">
         <f>Zadania!C8</f>
-        <v>33,64(75)</v>
-      </c>
-      <c r="E8" s="11">
+        <v>33,6(13)</v>
+      </c>
+      <c r="E8" s="10">
         <f>Zadania!E8</f>
         <v>0.70102255999123542</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="13">
         <f>Zadania!F8</f>
-        <v>0.75813320923832284</v>
+        <v>1.35083898483498</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
@@ -3840,30 +3874,30 @@
         <f>Zadania!B15</f>
         <v>47,00(28)</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <f>Zadania!C15</f>
-        <v>861.2</v>
-      </c>
-      <c r="K8" s="11" t="str">
+        <v>859.74857142857149</v>
+      </c>
+      <c r="K8" s="10" t="str">
         <f>Zadania!C8</f>
-        <v>33,64(75)</v>
-      </c>
-      <c r="L8" s="11">
+        <v>33,6(13)</v>
+      </c>
+      <c r="L8" s="10">
         <f>Zadania!E15</f>
-        <v>0.75813320923832284</v>
-      </c>
-      <c r="M8" s="12" t="str">
+        <v>1.35083898483498</v>
+      </c>
+      <c r="M8" s="11" t="str">
         <f>Zadania!H15</f>
-        <v>0,2946(66)</v>
+        <v>0,295(11)</v>
       </c>
       <c r="N8" s="12">
         <f>Zadania!G15</f>
-        <v>6.6410041889994383E-3</v>
+        <v>1.1835273327265961E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,142 +3905,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E235F9-60CB-49CA-BB40-675AA953A970}">
-  <dimension ref="D5:F16"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="4" max="4" width="77.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="75.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52" style="8" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D5" s="8">
-        <v>1244.341551</v>
-      </c>
-      <c r="E5" s="8">
-        <v>432</v>
-      </c>
-      <c r="F5" s="8" t="str">
-        <f>_xlfn.CONCAT(FIXED(D5,RIGHT(TEXT(E5,"0,00E+00"),2)+1,TRUE),"(",LEFT(E5*10^(LEN(E5)),2),")")</f>
-        <v>1244,342(43)</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D9" s="8">
-        <f>10^22</f>
-        <v>1E+22</v>
-      </c>
-      <c r="E9" s="8">
-        <f>10^22</f>
-        <v>1E+22</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D10" s="8">
-        <f>D12*D9</f>
-        <v>644.20363046065017</v>
-      </c>
-      <c r="E10" s="8">
-        <f>E12*E9</f>
-        <v>20.039120732885841</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D12" s="8">
-        <v>6.4420363046065019E-20</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.003912073288584E-21</v>
-      </c>
-      <c r="F12" t="str">
-        <f>_xlfn.CONCAT(FIXED(D12,RIGHT(TEXT(E12,"0,00E+00"),2)+1,TRUE),"(",LEFT(E12*10^(LEN(E12)),2),")")</f>
-        <v>0,0000000000000000000644(0,)</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D14" s="8">
-        <v>1.0693780265646793E-43</v>
-      </c>
-      <c r="E14" s="8">
-        <v>3.3264940416590494E-45</v>
-      </c>
-      <c r="F14" t="str">
-        <f>_xlfn.CONCAT(FIXED(D14,RIGHT(TEXT(E14,"0,00E+00"),2)+1,TRUE),"(",LEFT(E14*10^LEN(E14),2),")")</f>
-        <v>0,0000000000000000000000000000000000000000001069(3,)</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="8">
-        <v>6.6729188857635996E-25</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.0757322819952467E-26</v>
-      </c>
-      <c r="F16" t="str">
-        <f>_xlfn.CONCAT(FIXED(D16,RIGHT(TEXT(E16,"0,00E+00"),2)+1,TRUE),"(",LEFT(E16*10^LEN(E16),2),")")</f>
-        <v>0,000000000000000000000000667(2,)</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4015,13 +3928,13 @@
         <v>0.28867513459481292</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f>0.5/SQRT(3)</f>
-        <v>0.28867513459481292</v>
+        <f>2/SQRT(3)</f>
+        <v>1.1547005383792517</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -4029,12 +3942,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -4049,7 +3962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -4070,7 +3983,7 @@
         <v>130.63666666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -4091,7 +4004,7 @@
         <v>85.350000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -4112,7 +4025,7 @@
         <v>54.885000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -4133,7 +4046,7 @@
         <v>45.050000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -4154,32 +4067,32 @@
         <v>33.63666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>47</v>
       </c>
@@ -4187,6 +4100,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>